--- a/tie_line.xlsx
+++ b/tie_line.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04744239199404217</v>
+        <v>0.04744239239349662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1760396872361527</v>
+        <v>0.1760396895082021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7765179207698052</v>
+        <v>0.7765179180983013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5807039926941069</v>
+        <v>0.5807039934393524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.419296007305893</v>
+        <v>0.4192960065606475</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224856493716719e-300</v>
+        <v>1.224856493743635e-300</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04744957431236142</v>
+        <v>0.04744957135327681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1761230459164319</v>
+        <v>0.1761230585123653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7764273797712068</v>
+        <v>0.7764273701343579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5790666722384223</v>
+        <v>0.5790667046211782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4209333277615775</v>
+        <v>0.4209332953788219</v>
       </c>
       <c r="G3" t="n">
-        <v>3.828592248816543e-299</v>
+        <v>3.828592252472445e-299</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04745693723672</v>
+        <v>0.04745693725946455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1762087869264662</v>
+        <v>0.1762087869997258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7763342758368138</v>
+        <v>0.7763342757408096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5774260922977635</v>
+        <v>0.5774260923046163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4225739077022365</v>
+        <v>0.4225739076953838</v>
       </c>
       <c r="G4" t="n">
-        <v>1.196721186505683e-297</v>
+        <v>1.196721186505925e-297</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04746448354510788</v>
+        <v>0.04746448367817999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1762969624976557</v>
+        <v>0.1762970086924272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7762385539572364</v>
+        <v>0.7762385076293928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5757822305949073</v>
+        <v>0.5757821942217997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4242177694050927</v>
+        <v>0.4242178057782004</v>
       </c>
       <c r="G5" t="n">
-        <v>3.740647640704437e-296</v>
+        <v>3.740647636691977e-296</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04747221554569259</v>
+        <v>0.04747221557053546</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176387615488011</v>
+        <v>0.1763876161777378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7761401689662965</v>
+        <v>0.7761401682517267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5741350615716539</v>
+        <v>0.5741350626890334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.425864938428346</v>
+        <v>0.4258649373109667</v>
       </c>
       <c r="G6" t="n">
-        <v>1.169231691724359e-294</v>
+        <v>1.16923169176289e-294</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04748013664606416</v>
+        <v>0.04748014677223564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1764808082323534</v>
+        <v>0.1764809663973335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7760390551215826</v>
+        <v>0.7760388868304309</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5724845636072725</v>
+        <v>0.5724845635769779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4275154363927274</v>
+        <v>0.4275154364230221</v>
       </c>
       <c r="G7" t="n">
-        <v>3.654721702748015e-293</v>
+        <v>3.65472170274475e-293</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04748824891119875</v>
+        <v>0.04748824891601691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1765765788182865</v>
+        <v>0.1765765788740661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7759351722705148</v>
+        <v>0.775935172209917</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5708307086709522</v>
+        <v>0.5708307086423419</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4291692913290477</v>
+        <v>0.4291692913576582</v>
       </c>
       <c r="G8" t="n">
-        <v>1.142373189582681e-291</v>
+        <v>1.142373189581717e-291</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04749655469551765</v>
+        <v>0.04749655550600726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1766749869912858</v>
+        <v>0.176674989438226</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7758284583131966</v>
+        <v>0.7758284550557667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5691734705971516</v>
+        <v>0.5691734747841461</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4308265294028484</v>
+        <v>0.4308265252158539</v>
       </c>
       <c r="G9" t="n">
-        <v>3.570768110641422e-290</v>
+        <v>3.570768111082416e-290</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04750506140182453</v>
+        <v>0.04750509708680425</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1767761038154325</v>
+        <v>0.1767763669641691</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7757188347827429</v>
+        <v>0.7757185359490266</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5675128410874645</v>
+        <v>0.5675127539422339</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4324871589125357</v>
+        <v>0.4324872460577661</v>
       </c>
       <c r="G10" t="n">
-        <v>1.116131200402176e-288</v>
+        <v>1.116131197533059e-288</v>
       </c>
     </row>
     <row r="11">
@@ -677,22 +677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04751376189950495</v>
+        <v>0.04751376208582873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1768799297813392</v>
+        <v>0.1768799313218841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7756063083191559</v>
+        <v>0.7756063065922872</v>
       </c>
       <c r="E11" t="n">
-        <v>0.56584876759912</v>
+        <v>0.5658487675544807</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4341512324008801</v>
+        <v>0.4341512324455193</v>
       </c>
       <c r="G11" t="n">
-        <v>3.488741605056354e-287</v>
+        <v>3.48874160505176e-287</v>
       </c>
     </row>
     <row r="12">
@@ -700,22 +700,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04752266761431952</v>
+        <v>0.0475226787580698</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1769865676200237</v>
+        <v>0.1769866461377418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7754907647656568</v>
+        <v>0.7754906751041883</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5641812436609683</v>
+        <v>0.5641812324483249</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4358187563390315</v>
+        <v>0.4358187675516753</v>
       </c>
       <c r="G12" t="n">
-        <v>1.090491576098747e-285</v>
+        <v>1.090491575738034e-285</v>
       </c>
     </row>
     <row r="13">
@@ -723,22 +723,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0475317767841922</v>
+        <v>0.04753177677039957</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177096048146132</v>
+        <v>0.1770960479690074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7753721750696758</v>
+        <v>0.7753721752605931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5625102379940129</v>
+        <v>0.5625102376370419</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4374897620059872</v>
+        <v>0.437489762362958</v>
       </c>
       <c r="G13" t="n">
-        <v>3.408597962059395e-284</v>
+        <v>3.408597962023497e-284</v>
       </c>
     </row>
     <row r="14">
@@ -746,22 +746,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04754110175796485</v>
+        <v>0.04754109386349623</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1772084968185808</v>
+        <v>0.1772084326950615</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7752504014234544</v>
+        <v>0.7752504734414424</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5608357026858469</v>
+        <v>0.5608357248009338</v>
       </c>
       <c r="F14" t="n">
-        <v>0.439164297314153</v>
+        <v>0.4391642751990661</v>
       </c>
       <c r="G14" t="n">
-        <v>1.065440493393177e-282</v>
+        <v>1.06544049408835e-282</v>
       </c>
     </row>
     <row r="15">
@@ -769,22 +769,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04755062468607647</v>
+        <v>0.0475506209057276</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1773237980623878</v>
+        <v>0.1773237743517061</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7751255772515356</v>
+        <v>0.7751256047425664</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5591576732966215</v>
+        <v>0.5591576776249202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4408423267033785</v>
+        <v>0.4408423223750799</v>
       </c>
       <c r="G15" t="n">
-        <v>3.330293973648431e-281</v>
+        <v>3.330293974073732e-281</v>
       </c>
     </row>
     <row r="16">
@@ -792,22 +792,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04756036044360205</v>
+        <v>0.04756036002357857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1774421272685625</v>
+        <v>0.1774421252460774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7749975122878354</v>
+        <v>0.7749975147303441</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5574760699092266</v>
+        <v>0.5574760698763839</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4425239300907733</v>
+        <v>0.4425239301236161</v>
       </c>
       <c r="G16" t="n">
-        <v>1.040964448311108e-279</v>
+        <v>1.040964448310099e-279</v>
       </c>
     </row>
     <row r="17">
@@ -815,22 +815,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04757031455347605</v>
+        <v>0.04757032792684664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1775635456401682</v>
+        <v>0.1775636721507531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7748661398063558</v>
+        <v>0.7748659999224002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5557908752896639</v>
+        <v>0.5557908221104343</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4442091247103362</v>
+        <v>0.4442091778895658</v>
       </c>
       <c r="G17" t="n">
-        <v>3.253787424545893e-278</v>
+        <v>3.25378741944001e-278</v>
       </c>
     </row>
     <row r="18">
@@ -838,22 +838,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0475804972631856</v>
+        <v>0.04758048633627769</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1776881526882324</v>
+        <v>0.1776880882684823</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7747313500485821</v>
+        <v>0.77473142539524</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5541020997710431</v>
+        <v>0.5541020656871134</v>
       </c>
       <c r="F18" t="n">
-        <v>0.445897900228957</v>
+        <v>0.4458979343128865</v>
       </c>
       <c r="G18" t="n">
-        <v>1.017050243779613e-276</v>
+        <v>1.017050242756666e-276</v>
       </c>
     </row>
     <row r="19">
@@ -861,22 +861,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04759087805420809</v>
+        <v>0.04759087797707458</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1778158111898708</v>
+        <v>0.1778158100019689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7745933107559211</v>
+        <v>0.7745933120209565</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5524096129489373</v>
+        <v>0.5524096137876694</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4475903870510625</v>
+        <v>0.4475903862123307</v>
       </c>
       <c r="G19" t="n">
-        <v>3.179037065265312e-275</v>
+        <v>3.179037065343999e-275</v>
       </c>
     </row>
     <row r="20">
@@ -884,22 +884,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04760149280811383</v>
+        <v>0.04760149210788459</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1779467802869913</v>
+        <v>0.1779467690462121</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7744517269048948</v>
+        <v>0.7744517388459033</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5507135008406444</v>
+        <v>0.5507134922832368</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4492864991593555</v>
+        <v>0.4492865077167631</v>
       </c>
       <c r="G20" t="n">
-        <v>9.936849843603841e-274</v>
+        <v>9.936849841094292e-274</v>
       </c>
     </row>
     <row r="21">
@@ -907,22 +907,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04761232836985203</v>
+        <v>0.04761232564822841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1780810272791334</v>
+        <v>0.1780810327214835</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7743066443510146</v>
+        <v>0.7743066416302881</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5490136826018261</v>
+        <v>0.5490136474589425</v>
       </c>
       <c r="F21" t="n">
-        <v>0.450986317398174</v>
+        <v>0.4509863525410574</v>
       </c>
       <c r="G21" t="n">
-        <v>3.106002595731722e-272</v>
+        <v>3.106002592510166e-272</v>
       </c>
     </row>
     <row r="22">
@@ -930,22 +930,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0476233983340864</v>
+        <v>0.0476233970471257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1782186590055363</v>
+        <v>0.1782186309410928</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7741579426603772</v>
+        <v>0.7741579720117815</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5473101144504068</v>
+        <v>0.54731012451645</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4526898855495932</v>
+        <v>0.4526898754835499</v>
       </c>
       <c r="G22" t="n">
-        <v>9.708560745598228e-271</v>
+        <v>9.708560748482671e-271</v>
       </c>
     </row>
     <row r="23">
@@ -953,22 +953,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04763469284544521</v>
+        <v>0.0476346938076349</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1783596516363768</v>
+        <v>0.178359658757086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.774005655518178</v>
+        <v>0.7740056474352791</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5456028218976627</v>
+        <v>0.5456028173588449</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4543971781023372</v>
+        <v>0.4543971826411551</v>
       </c>
       <c r="G23" t="n">
-        <v>3.034644635531519e-269</v>
+        <v>3.034644635124963e-269</v>
       </c>
     </row>
     <row r="24">
@@ -976,22 +976,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04764622079738392</v>
+        <v>0.04764623013724945</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1785041456200235</v>
+        <v>0.1785042215771623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7738496335825925</v>
+        <v>0.7738495482855882</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5438917344160854</v>
+        <v>0.5438917328333764</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4561082655839145</v>
+        <v>0.4561082671666237</v>
       </c>
       <c r="G24" t="n">
-        <v>9.485512065368094e-268</v>
+        <v>9.485512064924941e-268</v>
       </c>
     </row>
     <row r="25">
@@ -999,22 +999,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04765798300344024</v>
+        <v>0.04765798300352382</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1786521724171269</v>
+        <v>0.1786521724190512</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7736898445794329</v>
+        <v>0.773689844577425</v>
       </c>
       <c r="E25" t="n">
-        <v>0.542176832828506</v>
+        <v>0.5421768328237618</v>
       </c>
       <c r="F25" t="n">
-        <v>0.457823167171494</v>
+        <v>0.4578231671762382</v>
       </c>
       <c r="G25" t="n">
-        <v>2.964924714043365e-266</v>
+        <v>2.964924714042949e-266</v>
       </c>
     </row>
     <row r="26">
@@ -1022,22 +1022,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04766998385957567</v>
+        <v>0.04766998230701246</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1788038049737939</v>
+        <v>0.1788038004003164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7735262111666303</v>
+        <v>0.7735262172926711</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5404580851401025</v>
+        <v>0.5404580851124272</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4595419148598976</v>
+        <v>0.4595419148875727</v>
       </c>
       <c r="G26" t="n">
-        <v>9.267583530243727e-265</v>
+        <v>9.267583530236154e-265</v>
       </c>
     </row>
     <row r="27">
@@ -1045,22 +1045,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04768222085837016</v>
+        <v>0.04768222020340088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1789590769176785</v>
+        <v>0.1789590731273246</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7733587022239513</v>
+        <v>0.7733587066692745</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5387354652693471</v>
+        <v>0.5387354673480615</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4612645347306528</v>
+        <v>0.4612645326519383</v>
       </c>
       <c r="G27" t="n">
-        <v>2.896805239053228e-263</v>
+        <v>2.896805239231004e-263</v>
       </c>
     </row>
     <row r="28">
@@ -1068,22 +1068,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04769470004014832</v>
+        <v>0.04769470006518245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1791180743044468</v>
+        <v>0.1791180756598442</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7731872256554049</v>
+        <v>0.7731872242749733</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5370089420150178</v>
+        <v>0.5370089425757879</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4629910579849822</v>
+        <v>0.462991057424212</v>
       </c>
       <c r="G28" t="n">
-        <v>9.054657642784329e-262</v>
+        <v>9.05465764293424e-262</v>
       </c>
     </row>
     <row r="29">
@@ -1091,22 +1091,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0477074630495454</v>
+        <v>0.04770742367449551</v>
       </c>
       <c r="C29" t="n">
-        <v>0.179281174428782</v>
+        <v>0.1792808594085025</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7730113625216726</v>
+        <v>0.773011716917002</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5352784443336095</v>
+        <v>0.5352784804725619</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4647215556663905</v>
+        <v>0.4647215195274382</v>
       </c>
       <c r="G29" t="n">
-        <v>2.830249479277158e-260</v>
+        <v>2.83024948229713e-260</v>
       </c>
     </row>
     <row r="30">
@@ -1114,22 +1114,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04772038933232907</v>
+        <v>0.04772039308227774</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1794474816299556</v>
+        <v>0.1794474927220671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7728321290377154</v>
+        <v>0.7728321141956552</v>
       </c>
       <c r="E30" t="n">
-        <v>0.533544050325976</v>
+        <v>0.5335440545145026</v>
       </c>
       <c r="F30" t="n">
-        <v>0.466455949674024</v>
+        <v>0.4664559454854975</v>
       </c>
       <c r="G30" t="n">
-        <v>8.846619594554657e-259</v>
+        <v>8.846619595648774e-259</v>
       </c>
     </row>
     <row r="31">
@@ -1137,22 +1137,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04773361102349671</v>
+        <v>0.04773361103709934</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1796180392773881</v>
+        <v>0.1796180392757734</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7726483496991152</v>
+        <v>0.7726483496871273</v>
       </c>
       <c r="E31" t="n">
-        <v>0.531805626672013</v>
+        <v>0.5318056266492267</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4681943733279871</v>
+        <v>0.4681943733507732</v>
       </c>
       <c r="G31" t="n">
-        <v>2.765221557533382e-257</v>
+        <v>2.76522155753152e-257</v>
       </c>
     </row>
     <row r="32">
@@ -1160,22 +1160,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04774707960327966</v>
+        <v>0.04774708121982545</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1797925680154395</v>
+        <v>0.1797925818174322</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7724603523812809</v>
+        <v>0.7724603369627422</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5300631690665425</v>
+        <v>0.5300631744770716</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4699368309334576</v>
+        <v>0.4699368255229284</v>
       </c>
       <c r="G32" t="n">
-        <v>8.643357216272073e-256</v>
+        <v>8.643357217653068e-256</v>
       </c>
     </row>
     <row r="33">
@@ -1183,22 +1183,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04776080108534426</v>
+        <v>0.04776080117034807</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1799711453012573</v>
+        <v>0.1799711455042073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7722680536133985</v>
+        <v>0.7722680533254447</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5283166480152723</v>
+        <v>0.5283166476323269</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4716833519847276</v>
+        <v>0.4716833523676732</v>
       </c>
       <c r="G33" t="n">
-        <v>2.701686402007608e-254</v>
+        <v>2.701686401977055e-254</v>
       </c>
     </row>
     <row r="34">
@@ -1206,22 +1206,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4879641330983389</v>
+        <v>0.04777477771585598</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4967192876366805</v>
+        <v>0.1801538395739622</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01531657926498048</v>
+        <v>0.7720713827101819</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7473612096453599</v>
+        <v>0.5265660306241665</v>
       </c>
       <c r="F34" t="n">
-        <v>0.25263879035464</v>
+        <v>0.4734339693758335</v>
       </c>
       <c r="G34" t="n">
-        <v>8.499827889594133e-253</v>
+        <v>8.444760906784685e-253</v>
       </c>
     </row>
     <row r="35">
@@ -1229,22 +1229,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4890672540530159</v>
+        <v>0.04778901143667797</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4958589764982061</v>
+        <v>0.1803407184878898</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01507376944877794</v>
+        <v>0.7718702700754323</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7468434444148935</v>
+        <v>0.5248112842160962</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2531565555851064</v>
+        <v>0.4751887157839038</v>
       </c>
       <c r="G35" t="n">
-        <v>2.656919573625857e-251</v>
+        <v>2.639609757533829e-251</v>
       </c>
     </row>
     <row r="36">
@@ -1252,22 +1252,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04780350527893437</v>
+        <v>0.04780350529763562</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1805318573910882</v>
+        <v>0.1805318574748172</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7716646373299774</v>
+        <v>0.7716646372275472</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5230523734451797</v>
+        <v>0.5230523734426545</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4769476265548203</v>
+        <v>0.4769476265573455</v>
       </c>
       <c r="G36" t="n">
-        <v>8.250723582644992e-250</v>
+        <v>8.250723582644377e-250</v>
       </c>
     </row>
     <row r="37">
@@ -1275,22 +1275,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04781826062383812</v>
+        <v>0.04781826059501922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1807273284431639</v>
+        <v>0.1807273226250792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.771454410932998</v>
+        <v>0.7714544167799017</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5212892349995986</v>
+        <v>0.5212892651394453</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4787107650004014</v>
+        <v>0.4787107348605547</v>
       </c>
       <c r="G37" t="n">
-        <v>2.578958149333562e-248</v>
+        <v>2.578958151629539e-248</v>
       </c>
     </row>
     <row r="38">
@@ -1298,22 +1298,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04783329578898008</v>
+        <v>0.04783328043587206</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1809272911716767</v>
+        <v>0.1809271942996535</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7712394130393432</v>
+        <v>0.7712395252644745</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5195218588085195</v>
+        <v>0.5195219240735686</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4804781411914805</v>
+        <v>0.4804780759264314</v>
       </c>
       <c r="G38" t="n">
-        <v>8.061140600299502e-247</v>
+        <v>8.061140615840606e-247</v>
       </c>
     </row>
     <row r="39">
@@ -1321,22 +1321,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04784857296386505</v>
+        <v>0.0478485656433702</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1811315645131196</v>
+        <v>0.181131531530724</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7710198625230155</v>
+        <v>0.7710199028259058</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5177503167747594</v>
+        <v>0.517750318631979</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4822496832252405</v>
+        <v>0.4822496813680212</v>
       </c>
       <c r="G39" t="n">
-        <v>2.51969887997365e-245</v>
+        <v>2.519698880111892e-245</v>
       </c>
     </row>
     <row r="40">
@@ -1344,22 +1344,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0478641517989583</v>
+        <v>0.04786411939354356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1813406455945589</v>
+        <v>0.181340421738243</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7707952026064828</v>
+        <v>0.7707954588682134</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5159743254790554</v>
+        <v>0.5159744078980498</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4840256745209445</v>
+        <v>0.4840255921019502</v>
       </c>
       <c r="G40" t="n">
-        <v>7.87590976095732e-244</v>
+        <v>7.875909780134213e-244</v>
       </c>
     </row>
     <row r="41">
@@ -1367,22 +1367,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0478799442269278</v>
+        <v>0.04787995283866732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1815539412825078</v>
+        <v>0.1815540034735965</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7705661144905643</v>
+        <v>0.7705660436877363</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5141941539985379</v>
+        <v>0.5141941466479366</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4858058460014623</v>
+        <v>0.4858058533520634</v>
       </c>
       <c r="G41" t="n">
-        <v>2.461799988255194e-242</v>
+        <v>2.46179998772057e-242</v>
       </c>
     </row>
     <row r="42">
@@ -1390,22 +1390,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04789604093444385</v>
+        <v>0.04789604813656635</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1817721587262976</v>
+        <v>0.1817722103295734</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7703318003392584</v>
+        <v>0.7703317415338602</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5124095356699703</v>
+        <v>0.5124095376091296</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4875904643300297</v>
+        <v>0.4875904623908704</v>
       </c>
       <c r="G42" t="n">
-        <v>7.694931192831861e-241</v>
+        <v>7.694931193272735e-241</v>
       </c>
     </row>
     <row r="43">
@@ -1413,22 +1413,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04791243725236118</v>
+        <v>0.04791241435934331</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1819953882321513</v>
+        <v>0.1819951768031588</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7700921745154875</v>
+        <v>0.7700924088374979</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5106205206393655</v>
+        <v>0.5106204902242392</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4893794793606345</v>
+        <v>0.4893795097757607</v>
       </c>
       <c r="G43" t="n">
-        <v>2.405230257860014e-239</v>
+        <v>2.405230255698464e-239</v>
       </c>
     </row>
     <row r="44">
@@ -1436,22 +1436,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04792905848850301</v>
+        <v>0.04792907738601136</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1822230162314078</v>
+        <v>0.182223123769758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7698479252800892</v>
+        <v>0.7698477988442306</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5088270071802089</v>
+        <v>0.508827002670474</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4911729928197911</v>
+        <v>0.4911729973295261</v>
       </c>
       <c r="G44" t="n">
-        <v>7.518107262047029e-238</v>
+        <v>7.518107261045182e-238</v>
       </c>
     </row>
     <row r="45">
@@ -1459,22 +1459,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04794598904885537</v>
+        <v>0.04794598951458209</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1824558332898814</v>
+        <v>0.1824558355944344</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7695981776612631</v>
+        <v>0.7695981748909836</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5070290397643146</v>
+        <v>0.5070290399131698</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4929709602356855</v>
+        <v>0.4929709600868301</v>
       </c>
       <c r="G45" t="n">
-        <v>2.349959178376324e-236</v>
+        <v>2.349959178386661e-236</v>
       </c>
     </row>
     <row r="46">
@@ -1482,22 +1482,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04796320103292012</v>
+        <v>0.04796324548562241</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1826936764783187</v>
+        <v>0.1826940430390091</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7693431224887611</v>
+        <v>0.7693427114753684</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5052265273306619</v>
+        <v>0.5052264757655539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4947734726693381</v>
+        <v>0.494773524234446</v>
       </c>
       <c r="G46" t="n">
-        <v>7.345342637762943e-235</v>
+        <v>7.345342626569695e-235</v>
       </c>
     </row>
     <row r="47">
@@ -1505,22 +1505,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04798069883548006</v>
+        <v>0.04798072935097693</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1829366577818009</v>
+        <v>0.1829368475058739</v>
       </c>
       <c r="D47" t="n">
-        <v>0.769082643382719</v>
+        <v>0.7690824231431492</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5034194790412234</v>
+        <v>0.5034194400692282</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4965805209587765</v>
+        <v>0.4965805599307718</v>
       </c>
       <c r="G47" t="n">
-        <v>2.295956950100057e-233</v>
+        <v>2.295956947455654e-233</v>
       </c>
     </row>
     <row r="48">
@@ -1528,22 +1528,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04799846810757319</v>
+        <v>0.04799852071003754</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1831847440227587</v>
+        <v>0.1831851517811495</v>
       </c>
       <c r="D48" t="n">
-        <v>0.768816787869668</v>
+        <v>0.7688163275088129</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5016078046813737</v>
+        <v>0.5016077240653908</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4983921953186264</v>
+        <v>0.4983922759346094</v>
       </c>
       <c r="G48" t="n">
-        <v>7.176544159893145e-232</v>
+        <v>7.176544142794132e-232</v>
       </c>
     </row>
     <row r="49">
@@ -1551,22 +1551,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0480165513660151</v>
+        <v>0.04801653311521848</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1834382670434542</v>
+        <v>0.1834381656734317</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7685451815905308</v>
+        <v>0.7685453012113498</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4997915090132218</v>
+        <v>0.4997914894935088</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5002084909867782</v>
+        <v>0.5002085105064913</v>
       </c>
       <c r="G49" t="n">
-        <v>2.24319445075693e-230</v>
+        <v>2.24319444946274e-230</v>
       </c>
     </row>
     <row r="50">
@@ -1574,22 +1574,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04803489716052195</v>
+        <v>0.0480348877978529</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1836970565455419</v>
+        <v>0.1836969602777414</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7682680462939361</v>
+        <v>0.7682681519244057</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4979705069193536</v>
+        <v>0.4979704889534271</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5020294930806464</v>
+        <v>0.5020295110465729</v>
       </c>
       <c r="G50" t="n">
-        <v>7.011620798646642e-229</v>
+        <v>7.01162079492316e-229</v>
       </c>
     </row>
     <row r="51">
@@ -1597,22 +1597,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04805353358359735</v>
+        <v>0.04805353182345977</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1839612143674993</v>
+        <v>0.1839612120495767</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7679852520489032</v>
+        <v>0.7679852561269636</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4961447605112498</v>
+        <v>0.496144777878651</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5038552394887502</v>
+        <v>0.503855222121349</v>
       </c>
       <c r="G51" t="n">
-        <v>2.191643224255298e-227</v>
+        <v>2.191643225380445e-227</v>
       </c>
     </row>
     <row r="52">
@@ -1620,22 +1620,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04807247337118161</v>
+        <v>0.0480724732232346</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184231025476239</v>
+        <v>0.1842310244732238</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7676965011525794</v>
+        <v>0.7676965023035416</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4943142629517826</v>
+        <v>0.494314263376833</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5056857370482174</v>
+        <v>0.505685736623167</v>
       </c>
       <c r="G52" t="n">
-        <v>6.850483606771101e-226</v>
+        <v>6.85048360685718e-226</v>
       </c>
     </row>
     <row r="53">
@@ -1643,22 +1643,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04809170825197248</v>
+        <v>0.04809174351960752</v>
       </c>
       <c r="C53" t="n">
-        <v>0.184506482738735</v>
+        <v>0.184506763493474</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7674018090092926</v>
+        <v>0.7674014929869185</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4924789536177515</v>
+        <v>0.492478992626496</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5075210463822485</v>
+        <v>0.5075210073735041</v>
       </c>
       <c r="G53" t="n">
-        <v>2.141275473768151e-224</v>
+        <v>2.141275476237522e-224</v>
       </c>
     </row>
     <row r="54">
@@ -1666,22 +1666,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04811124082703185</v>
+        <v>0.04811125650289843</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1847876848672985</v>
+        <v>0.1847877728926957</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7671010743056698</v>
+        <v>0.767100970604406</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4906387893503845</v>
+        <v>0.4906387881391209</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5093612106496154</v>
+        <v>0.509361211860879</v>
       </c>
       <c r="G54" t="n">
-        <v>6.693045697406803e-223</v>
+        <v>6.693045697167121e-223</v>
       </c>
     </row>
     <row r="55">
@@ -1689,22 +1689,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04813107478448345</v>
+        <v>0.04813107428359107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1850747338387483</v>
+        <v>0.1850747301037797</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7667941913767682</v>
+        <v>0.7667941956126293</v>
       </c>
       <c r="E55" t="n">
-        <v>0.488793729151232</v>
+        <v>0.4887937292315341</v>
       </c>
       <c r="F55" t="n">
-        <v>0.511206270848768</v>
+        <v>0.511206270768466</v>
       </c>
       <c r="G55" t="n">
-        <v>2.092064035626807e-221</v>
+        <v>2.092064035631774e-221</v>
       </c>
     </row>
     <row r="56">
@@ -1712,22 +1712,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04815120877256775</v>
+        <v>0.04815120983370749</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1853677155821678</v>
+        <v>0.1853677247760831</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7664810756452644</v>
+        <v>0.7664810653902093</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4869437242439849</v>
+        <v>0.4869437473900743</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5130562757560152</v>
+        <v>0.5130562526099256</v>
       </c>
       <c r="G56" t="n">
-        <v>6.539222162986656e-220</v>
+        <v>6.539222167462001e-220</v>
       </c>
     </row>
     <row r="57">
@@ -1735,22 +1735,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04817164704536241</v>
+        <v>0.04817164704978713</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1856667436993518</v>
+        <v>0.1856667437293839</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7661616092552858</v>
+        <v>0.7661616092208291</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4850887311378442</v>
+        <v>0.4850887311299562</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5149112688621558</v>
+        <v>0.5149112688700438</v>
       </c>
       <c r="G57" t="n">
-        <v>2.043982370207269e-218</v>
+        <v>2.043982370206792e-218</v>
       </c>
     </row>
     <row r="58">
@@ -1758,22 +1758,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04819239525324279</v>
+        <v>0.514070830559848</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1859719573568364</v>
+        <v>0.4756675660597552</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7658356473899209</v>
+        <v>0.01026160338039689</v>
       </c>
       <c r="E58" t="n">
-        <v>0.48322868602158</v>
+        <v>0.7348225531123547</v>
       </c>
       <c r="F58" t="n">
-        <v>0.51677131397842</v>
+        <v>0.2651774468876454</v>
       </c>
       <c r="G58" t="n">
-        <v>6.388930042239643e-217</v>
+        <v>6.436463425881053e-217</v>
       </c>
     </row>
     <row r="59">
@@ -1781,22 +1781,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04821345332874941</v>
+        <v>0.5151791968330397</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1862833928898768</v>
+        <v>0.4747403709329773</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7655031537813738</v>
+        <v>0.01008043223398287</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4813635958032625</v>
+        <v>0.7343243835686483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5186364041967376</v>
+        <v>0.2656756164313517</v>
       </c>
       <c r="G59" t="n">
-        <v>1.997004546910664e-215</v>
+        <v>2.011943726889601e-215</v>
       </c>
     </row>
     <row r="60">
@@ -1804,22 +1804,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04823480489533497</v>
+        <v>0.5162118840812411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1866011303665643</v>
+        <v>0.4738801962354405</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7651640647381007</v>
+        <v>0.009907919683318346</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4794933616071543</v>
+        <v>0.7337663164388366</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5205066383928456</v>
+        <v>0.2662336835611634</v>
       </c>
       <c r="G60" t="n">
-        <v>6.242088292062268e-214</v>
+        <v>6.289028887968744e-214</v>
       </c>
     </row>
     <row r="61">
@@ -1827,22 +1827,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04825647806106213</v>
+        <v>0.5173115822298985</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1869253841849582</v>
+        <v>0.4729562272982321</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7648181377539797</v>
+        <v>0.009732190471869446</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4776179508402306</v>
+        <v>0.733262439392101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5223820491597693</v>
+        <v>0.266737560607899</v>
       </c>
       <c r="G61" t="n">
-        <v>1.951105230156117e-212</v>
+        <v>1.96585753021659e-212</v>
       </c>
     </row>
     <row r="62">
@@ -1850,22 +1850,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04827847092255085</v>
+        <v>0.5184120379916466</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1872562589973725</v>
+        <v>0.4720300694959019</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7644652700800766</v>
+        <v>0.009557892512451541</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4757372968754756</v>
+        <v>0.7327598232080798</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5242627031245245</v>
+        <v>0.2672401767919203</v>
       </c>
       <c r="G62" t="n">
-        <v>6.098617704432639e-211</v>
+        <v>6.144980473367477e-211</v>
       </c>
     </row>
     <row r="63">
@@ -1873,22 +1873,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04830076801423756</v>
+        <v>0.5194614687530574</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1875937526965991</v>
+        <v>0.4711474807292411</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7641054792891633</v>
+        <v>0.009391050517701593</v>
       </c>
       <c r="E63" t="n">
-        <v>0.473851406678742</v>
+        <v>0.7322168340982155</v>
       </c>
       <c r="F63" t="n">
-        <v>0.526148593321258</v>
+        <v>0.2677831659017846</v>
       </c>
       <c r="G63" t="n">
-        <v>1.906259665251209e-209</v>
+        <v>1.920827917442946e-209</v>
       </c>
     </row>
     <row r="64">
@@ -1896,22 +1896,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04832338860202932</v>
+        <v>0.5205092254620836</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1879380988563094</v>
+        <v>0.4702646931767154</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7637385125416614</v>
+        <v>0.009226081361201224</v>
       </c>
       <c r="E64" t="n">
-        <v>0.471960173624391</v>
+        <v>0.7316731161551387</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5280398263756089</v>
+        <v>0.2683268838448613</v>
       </c>
       <c r="G64" t="n">
-        <v>5.958440915382773e-208</v>
+        <v>6.004217303116581e-208</v>
       </c>
     </row>
     <row r="65">
@@ -1919,22 +1919,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0483463301557028</v>
+        <v>0.5215907525465149</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1882893860447453</v>
+        <v>0.4693482364662056</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7633642837995519</v>
+        <v>0.009061010987279518</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4700635691427545</v>
+        <v>0.7311572003754871</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5299364308572454</v>
+        <v>0.2688427996245128</v>
       </c>
       <c r="G65" t="n">
-        <v>1.862443665816809e-206</v>
+        <v>1.876828970970531e-206</v>
       </c>
     </row>
     <row r="66">
@@ -1942,22 +1942,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04836959781307006</v>
+        <v>0.5226832452012891</v>
       </c>
       <c r="C66" t="n">
-        <v>0.188647754741789</v>
+        <v>0.4684201296085218</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7629826474451409</v>
+        <v>0.008896625190188986</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4681615334137112</v>
+        <v>0.7306505959753508</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5318384665862887</v>
+        <v>0.2693494040246494</v>
       </c>
       <c r="G66" t="n">
-        <v>5.821482312787618e-205</v>
+        <v>5.866689645807262e-205</v>
       </c>
     </row>
     <row r="67">
@@ -1965,22 +1965,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04839317587960854</v>
+        <v>0.5238148732808854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1890132284397587</v>
+        <v>0.4674532968670309</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7625935956806327</v>
+        <v>0.008731829852083718</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4662540084950752</v>
+        <v>0.7301764482627182</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5337459915049247</v>
+        <v>0.2698235517372818</v>
       </c>
       <c r="G67" t="n">
-        <v>1.819633599071129e-203</v>
+        <v>1.833842119846639e-203</v>
       </c>
     </row>
     <row r="68">
@@ -1988,22 +1988,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04841708716252907</v>
+        <v>0.5247987530594292</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1893860513413005</v>
+        <v>0.4666206216210825</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7621968614961705</v>
+        <v>0.008580625319488343</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4643409658616651</v>
+        <v>0.7295833004826041</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5356590341383348</v>
+        <v>0.2704166995173958</v>
       </c>
       <c r="G68" t="n">
-        <v>5.687668030003623e-202</v>
+        <v>5.732304543553994e-202</v>
       </c>
     </row>
     <row r="69">
@@ -2011,22 +2011,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04844136651770035</v>
+        <v>0.5259627922694712</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1897665827916311</v>
+        <v>0.4656201953587591</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7617920506906686</v>
+        <v>0.00841701237176965</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4624222860399278</v>
+        <v>0.7291366904007458</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5375777139600721</v>
+        <v>0.2708633095992543</v>
       </c>
       <c r="G69" t="n">
-        <v>1.777806374669707e-200</v>
+        <v>1.791836733204347e-200</v>
       </c>
     </row>
     <row r="70">
@@ -2034,22 +2034,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04846589319061774</v>
+        <v>0.5269479727466487</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1901541464328315</v>
+        <v>0.4647820492208036</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7613799603765506</v>
+        <v>0.008269978032547714</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4604980494786778</v>
+        <v>0.7285455955388989</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5395019505213223</v>
+        <v>0.2714544044611011</v>
       </c>
       <c r="G70" t="n">
-        <v>5.556925895214169e-199</v>
+        <v>5.601002588767425e-199</v>
       </c>
     </row>
     <row r="71">
@@ -2057,22 +2057,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04849084560537611</v>
+        <v>0.5281161456269858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1905500334078708</v>
+        <v>0.4637725449870517</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7609591209867531</v>
+        <v>0.008111309385962454</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4585680056173002</v>
+        <v>0.7281038632497828</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5414319943827</v>
+        <v>0.2718961367502172</v>
       </c>
       <c r="G71" t="n">
-        <v>1.736939434911336e-197</v>
+        <v>1.750793862797726e-197</v>
       </c>
     </row>
     <row r="72">
@@ -2080,22 +2080,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04851606214007213</v>
+        <v>0.5291090493047161</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1909534157657877</v>
+        <v>0.4629237418311302</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7605305220941401</v>
+        <v>0.007967208864153539</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4566321968083009</v>
+        <v>0.727520021431978</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5433678031916993</v>
+        <v>0.272479978568022</v>
       </c>
       <c r="G72" t="n">
-        <v>5.429185367722124e-196</v>
+        <v>5.472710129901268e-196</v>
       </c>
     </row>
     <row r="73">
@@ -2103,22 +2103,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485415899066968</v>
+        <v>0.5301883337527082</v>
       </c>
       <c r="C73" t="n">
-        <v>0.19136446007679</v>
+        <v>0.4619924594445504</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7600939500165131</v>
+        <v>0.007819206802741402</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4546907789653217</v>
+        <v>0.7270071613549911</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5453092210346783</v>
+        <v>0.2729928386450087</v>
       </c>
       <c r="G73" t="n">
-        <v>1.697010740540418e-194</v>
+        <v>1.710687889112482e-194</v>
       </c>
     </row>
     <row r="74">
@@ -2126,22 +2126,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.04856749629861092</v>
+        <v>0.5312493606976019</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1917839874799454</v>
+        <v>0.4610756894226625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7596485162214436</v>
+        <v>0.007674949879735546</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4527433529542339</v>
+        <v>0.7264796556646534</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5472566470457663</v>
+        <v>0.2735203443353466</v>
       </c>
       <c r="G74" t="n">
-        <v>5.30437761252603e-193</v>
+        <v>5.347353916916593e-193</v>
       </c>
     </row>
     <row r="75">
@@ -2149,22 +2149,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04859373962916585</v>
+        <v>0.5322984144022108</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1922117982137026</v>
+        <v>0.4601693490221757</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7591944621571316</v>
+        <v>0.007532236575613496</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4507899906481912</v>
+        <v>0.7259435956326262</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5492100093518087</v>
+        <v>0.2740564043673737</v>
       </c>
       <c r="G75" t="n">
-        <v>1.657998747250474e-191</v>
+        <v>1.671502259772932e-191</v>
       </c>
     </row>
     <row r="76">
@@ -2172,22 +2172,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04862038059175246</v>
+        <v>0.5334939491479431</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1926484361943666</v>
+        <v>0.4591235171376337</v>
       </c>
       <c r="D76" t="n">
-        <v>0.758731183213881</v>
+        <v>0.007382533714423054</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4488305443822322</v>
+        <v>0.7255279662117615</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5511694556177678</v>
+        <v>0.2744720337882385</v>
       </c>
       <c r="G76" t="n">
-        <v>5.182435230726981e-190</v>
+        <v>5.224882673476099e-190</v>
       </c>
     </row>
     <row r="77">
@@ -2195,22 +2195,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0486472506353935</v>
+        <v>0.5344731502818353</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1930929035708249</v>
+        <v>0.4582782152787287</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7582598457937816</v>
+        <v>0.007248634439436023</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4468652138373719</v>
+        <v>0.7249353774268785</v>
       </c>
       <c r="F77" t="n">
-        <v>0.553134786162628</v>
+        <v>0.2750646225731215</v>
       </c>
       <c r="G77" t="n">
-        <v>1.619882415258021e-188</v>
+        <v>1.633216883010707e-188</v>
       </c>
     </row>
     <row r="78">
@@ -2218,22 +2218,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04867452211967493</v>
+        <v>0.5356388070666082</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1935465171473683</v>
+        <v>0.4572556788879398</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7577789607329568</v>
+        <v>0.007105514045452043</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4448936731947749</v>
+        <v>0.7244967881082274</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5551063268052251</v>
+        <v>0.2755032118917727</v>
       </c>
       <c r="G78" t="n">
-        <v>5.063292508507576e-187</v>
+        <v>5.105204487985453e-187</v>
       </c>
     </row>
     <row r="79">
@@ -2241,22 +2241,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04870213991159252</v>
+        <v>0.5365919910013079</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1940090557597705</v>
+        <v>0.4564305650421581</v>
       </c>
       <c r="D79" t="n">
-        <v>0.757288804328637</v>
+        <v>0.006977443956534005</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4429159450649047</v>
+        <v>0.7238837670713111</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5570840549350954</v>
+        <v>0.2761162329286889</v>
       </c>
       <c r="G79" t="n">
-        <v>1.582641184412646e-185</v>
+        <v>1.595806389433988e-185</v>
       </c>
     </row>
     <row r="80">
@@ -2264,22 +2264,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04873010606737533</v>
+        <v>0.5377467657303844</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1944806901831542</v>
+        <v>0.4554145347895872</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7567892037494703</v>
+        <v>0.006838699480028519</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4409319635172272</v>
+        <v>0.7234375956405382</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5590680364827728</v>
+        <v>0.2765624043594617</v>
       </c>
       <c r="G80" t="n">
-        <v>4.94688513855229e-184</v>
+        <v>4.988263475011275e-184</v>
       </c>
     </row>
     <row r="81">
@@ -2287,22 +2287,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04875842320826775</v>
+        <v>0.5387319487935209</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1949615990194636</v>
+        <v>0.4545557237935958</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7562799777722686</v>
+        <v>0.006712327412883292</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4389416538285195</v>
+        <v>0.7228519169137374</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5610583461714805</v>
+        <v>0.2771480830862627</v>
       </c>
       <c r="G81" t="n">
-        <v>1.54625496576133e-182</v>
+        <v>1.55925372448555e-182</v>
       </c>
     </row>
     <row r="82">
@@ -2310,22 +2310,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04878709026969479</v>
+        <v>0.5399053363109702</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1954519431388068</v>
+        <v>0.4535187958489879</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7557609665914985</v>
+        <v>0.006575867840041985</v>
       </c>
       <c r="E82" t="n">
-        <v>0.436944970809528</v>
+        <v>0.72242259068339</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5630550291904719</v>
+        <v>0.27757740931661</v>
       </c>
       <c r="G82" t="n">
-        <v>4.83315034137099e-181</v>
+        <v>4.874007459678419e-181</v>
       </c>
     </row>
     <row r="83">
@@ -2333,22 +2333,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04881611454213446</v>
+        <v>0.5408192291909731</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1959519388845898</v>
+        <v>0.4527225283646681</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7552319465732756</v>
+        <v>0.006458242444358776</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4349418146112963</v>
+        <v>0.7217788351977836</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5650581853887037</v>
+        <v>0.2782211648022164</v>
       </c>
       <c r="G83" t="n">
-        <v>1.510704132244176e-179</v>
+        <v>1.523536468819915e-179</v>
       </c>
     </row>
     <row r="84">
@@ -2356,22 +2356,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04884551301019664</v>
+        <v>0.5420193354387501</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1964619094884725</v>
+        <v>0.4516572142132949</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7546925775013309</v>
+        <v>0.006323450347954953</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4329321965985127</v>
+        <v>0.7213730800526551</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5670678034014872</v>
+        <v>0.2786269199473448</v>
       </c>
       <c r="G84" t="n">
-        <v>4.722026771784825e-178</v>
+        <v>4.762363645062694e-178</v>
       </c>
     </row>
     <row r="85">
@@ -2379,22 +2379,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.04887522811769097</v>
+        <v>0.543134725614219</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1969816038808492</v>
+        <v>0.4506675640684387</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7541431680014599</v>
+        <v>0.006197710317342308</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4309158286370859</v>
+        <v>0.7208979240989589</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5690841713629142</v>
+        <v>0.2791020759010411</v>
       </c>
       <c r="G85" t="n">
-        <v>1.475969504614853e-176</v>
+        <v>1.488645774350125e-176</v>
       </c>
     </row>
     <row r="86">
@@ -2402,22 +2402,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.04890532037642551</v>
+        <v>0.5440492522433069</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1975115435684394</v>
+        <v>0.449866793942423</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7535831360551352</v>
+        <v>0.006083953814270032</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4288928993787635</v>
+        <v>0.7202558600196862</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5711071006212366</v>
+        <v>0.2797441399803136</v>
       </c>
       <c r="G86" t="n">
-        <v>4.613454460778249e-175</v>
+        <v>4.653267882476491e-175</v>
       </c>
     </row>
     <row r="87">
@@ -2425,22 +2425,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0489357759812506</v>
+        <v>0.5451973019159763</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1980519675601662</v>
+        <v>0.4488432246649415</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7530122564585833</v>
+        <v>0.005959473419082342</v>
       </c>
       <c r="E87" t="n">
-        <v>0.426863189924011</v>
+        <v>0.7198091547802444</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5731368100759892</v>
+        <v>0.2801908452197555</v>
       </c>
       <c r="G87" t="n">
-        <v>1.442032348512102e-173</v>
+        <v>1.45454523650426e-173</v>
       </c>
     </row>
     <row r="88">
@@ -2448,22 +2448,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0489666032028845</v>
+        <v>0.546314071368905</v>
       </c>
       <c r="C88" t="n">
-        <v>0.198603067083685</v>
+        <v>0.4478475878672357</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7524303297134305</v>
+        <v>0.005838340763859411</v>
       </c>
       <c r="E88" t="n">
-        <v>0.424826641428503</v>
+        <v>0.719337044258319</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5751733585714972</v>
+        <v>0.280662955741681</v>
       </c>
       <c r="G88" t="n">
-        <v>4.507374859862695e-172</v>
+        <v>4.546697760953144e-172</v>
       </c>
     </row>
     <row r="89">
@@ -2471,22 +2471,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.04899777761474452</v>
+        <v>0.5472907313644206</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1991648839648474</v>
+        <v>0.4469827594841801</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7518373384204082</v>
+        <v>0.005726509151399366</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4227832086455774</v>
+        <v>0.7187483191430981</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5772167913544226</v>
+        <v>0.2812516808569018</v>
       </c>
       <c r="G89" t="n">
-        <v>1.408874352296992e-170</v>
+        <v>1.421227007047314e-170</v>
       </c>
     </row>
     <row r="90">
@@ -2494,22 +2494,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04902933350214723</v>
+        <v>0.5484267947852247</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1997378818498667</v>
+        <v>0.4459658032742987</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7512327846479859</v>
+        <v>0.005607401940476681</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4207327701082829</v>
+        <v>0.718293533735427</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5792672298917172</v>
+        <v>0.2817064662645728</v>
       </c>
       <c r="G90" t="n">
-        <v>4.403730736896294e-169</v>
+        <v>4.442552059247901e-169</v>
       </c>
     </row>
     <row r="91">
@@ -2517,22 +2517,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.04906124518672747</v>
+        <v>0.5494723809307469</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2003220157780362</v>
+        <v>0.4450323582576485</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7506167390352363</v>
+        <v>0.005495260811604692</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4186752803811942</v>
+        <v>0.7177639704327746</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5813247196188058</v>
+        <v>0.2822360295672255</v>
       </c>
       <c r="G91" t="n">
-        <v>1.376477629003192e-167</v>
+        <v>1.388675092438793e-167</v>
       </c>
     </row>
     <row r="92">
@@ -2540,22 +2540,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.04909353251131046</v>
+        <v>0.5505904539483737</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200917727448408</v>
+        <v>0.4440273470088651</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7499887400402816</v>
+        <v>0.005382199042761167</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4166106327358556</v>
+        <v>0.717295673016718</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5833893672641445</v>
+        <v>0.2827043269832818</v>
       </c>
       <c r="G92" t="n">
-        <v>4.302466175764023e-166</v>
+        <v>4.340797712452417e-166</v>
       </c>
     </row>
     <row r="93">
@@ -2563,22 +2563,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04912619145438631</v>
+        <v>0.5515170562771016</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2015251867597793</v>
+        <v>0.4432032867633923</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7493486217858345</v>
+        <v>0.005279656959506053</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4145387500387382</v>
+        <v>0.7166670021001369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5854612499612616</v>
+        <v>0.2833329978998631</v>
       </c>
       <c r="G93" t="n">
-        <v>1.344824700797217e-164</v>
+        <v>1.356864260956065e-164</v>
       </c>
     </row>
     <row r="94">
@@ -2586,22 +2586,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0491592239206484</v>
+        <v>0.552510231970913</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2021446422776935</v>
+        <v>0.4423158505024883</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7486961338016581</v>
+        <v>0.005173917526598738</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4124595472798646</v>
+        <v>0.7160941371725685</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5875404527201354</v>
+        <v>0.2839058628274315</v>
       </c>
       <c r="G94" t="n">
-        <v>4.203526542377222e-163</v>
+        <v>4.241348621778742e-163</v>
       </c>
     </row>
     <row r="95">
@@ -2609,22 +2609,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.04919263141456404</v>
+        <v>0.553794739140544</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2027763445025062</v>
+        <v>0.44114715719784</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7480310240829298</v>
+        <v>0.005058103661615877</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4103729326630797</v>
+        <v>0.7157686924679274</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5896270673369203</v>
+        <v>0.2842313075320727</v>
       </c>
       <c r="G95" t="n">
-        <v>1.313898490543475e-161</v>
+        <v>1.325789864438888e-161</v>
       </c>
     </row>
     <row r="96">
@@ -2632,22 +2632,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.04922642626858671</v>
+        <v>0.5547958570251191</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2034207236554331</v>
+        <v>0.4402481594272042</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7473528500759802</v>
+        <v>0.004955983547676612</v>
       </c>
       <c r="E96" t="n">
-        <v>0.408278787404292</v>
+        <v>0.7152040855664783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5917212125957079</v>
+        <v>0.2847959144335218</v>
       </c>
       <c r="G96" t="n">
-        <v>4.106858453623752e-160</v>
+        <v>4.144215849318954e-160</v>
       </c>
     </row>
     <row r="97">
@@ -2655,22 +2655,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04926057814291844</v>
+        <v>0.5557292780960829</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2040775368197736</v>
+        <v>0.4394116379008179</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7466618850373079</v>
+        <v>0.004859084003099175</v>
       </c>
       <c r="E97" t="n">
-        <v>0.406177110217306</v>
+        <v>0.7145825512987294</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5938228897826939</v>
+        <v>0.2854174487012707</v>
       </c>
       <c r="G97" t="n">
-        <v>1.283682312548235e-158</v>
+        <v>1.295416170111824e-158</v>
       </c>
     </row>
     <row r="98">
@@ -2678,22 +2678,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04929512068048355</v>
+        <v>0.557003263726513</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2047475701515706</v>
+        <v>0.4382482337273254</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7459573091679458</v>
+        <v>0.004748502546161682</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4040677160637775</v>
+        <v>0.7142508652595974</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5959322839362226</v>
+        <v>0.2857491347404026</v>
       </c>
       <c r="G98" t="n">
-        <v>4.012409764890746e-157</v>
+        <v>4.049300036755956e-157</v>
       </c>
     </row>
     <row r="99">
@@ -2701,22 +2701,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04933004481735979</v>
+        <v>0.5578335205338112</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2054309372127813</v>
+        <v>0.4375068185178278</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7452390179698589</v>
+        <v>0.004659660948361053</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4019505380420502</v>
+        <v>0.7135423260229764</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5980494619579497</v>
+        <v>0.2864576739770237</v>
       </c>
       <c r="G99" t="n">
-        <v>1.254159863885157e-155</v>
+        <v>1.265743756758028e-155</v>
       </c>
     </row>
     <row r="100">
@@ -2724,22 +2724,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.04936535222135618</v>
+        <v>0.5589139889980851</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2061279306321613</v>
+        <v>0.4365271001247269</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7445067171464825</v>
+        <v>0.004558910877188173</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3998254807348016</v>
+        <v>0.7130473763355282</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6001745192651984</v>
+        <v>0.2869526236644718</v>
       </c>
       <c r="G100" t="n">
-        <v>3.920129505096273e-154</v>
+        <v>3.95652901340661e-154</v>
       </c>
     </row>
     <row r="101">
@@ -2747,22 +2747,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.04940104441705165</v>
+        <v>0.5598730062898629</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2068388515835279</v>
+        <v>0.4356592823817446</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7437601039994205</v>
+        <v>0.004467711328392499</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3976924406657165</v>
+        <v>0.7124494199148675</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6023075593342834</v>
+        <v>0.2875505800851325</v>
       </c>
       <c r="G101" t="n">
-        <v>1.225315215501549e-152</v>
+        <v>1.236749095942759e-152</v>
       </c>
     </row>
     <row r="102">
@@ -2770,22 +2770,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.04943712280003927</v>
+        <v>0.5610829196185916</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2075640106400296</v>
+        <v>0.4345514354295513</v>
       </c>
       <c r="D102" t="n">
-        <v>0.742998866559931</v>
+        <v>0.00436564495185719</v>
       </c>
       <c r="E102" t="n">
-        <v>0.395551316450958</v>
+        <v>0.7120662500289149</v>
       </c>
       <c r="F102" t="n">
-        <v>0.604448683549042</v>
+        <v>0.2879337499710852</v>
       </c>
       <c r="G102" t="n">
-        <v>3.829967886338459e-151</v>
+        <v>3.865908654725471e-151</v>
       </c>
     </row>
     <row r="103">
@@ -2793,22 +2793,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.04947358938129442</v>
+        <v>0.5619871898670477</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2083037277437872</v>
+        <v>0.4337333301816487</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7422226828749183</v>
+        <v>0.004279479951303577</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3934020017366007</v>
+        <v>0.7114223283069919</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6065979982633992</v>
+        <v>0.2885776716930081</v>
       </c>
       <c r="G103" t="n">
-        <v>1.197132803333573e-149</v>
+        <v>1.208420956820175e-149</v>
       </c>
     </row>
     <row r="104">
@@ -2816,22 +2816,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.04951044521878267</v>
+        <v>0.5631244395880428</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2090583338104775</v>
+        <v>0.432692247514515</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7414312209707399</v>
+        <v>0.004183312897442346</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3912443900824774</v>
+        <v>0.7109786326100402</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6087556099175226</v>
+        <v>0.2890213673899599</v>
       </c>
       <c r="G104" t="n">
-        <v>3.741876258363642e-148</v>
+        <v>3.777352046404987e-148</v>
       </c>
     </row>
     <row r="105">
@@ -2839,22 +2839,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.04954769406106788</v>
+        <v>0.5642876029621569</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2098281867803526</v>
+        <v>0.4316222175080754</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7406241191585794</v>
+        <v>0.004090179529767644</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3890784006749103</v>
+        <v>0.7105579522508949</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6109215993250897</v>
+        <v>0.289442047749105</v>
       </c>
       <c r="G105" t="n">
-        <v>1.169597421283705e-146</v>
+        <v>1.180747325314428e-146</v>
       </c>
     </row>
     <row r="106">
@@ -2862,22 +2862,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.04958533100354214</v>
+        <v>0.5655904331611976</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2106135862443845</v>
+        <v>0.4304167941764576</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7398010827520733</v>
+        <v>0.003992772662344808</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3869038319867408</v>
+        <v>0.7102584286271227</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6130961680132591</v>
+        <v>0.2897415713728772</v>
       </c>
       <c r="G106" t="n">
-        <v>3.655807086429669e-145</v>
+        <v>3.690863839442168e-145</v>
       </c>
     </row>
     <row r="107">
@@ -2885,22 +2885,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04962336400046474</v>
+        <v>0.5662645404676541</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2114149485524793</v>
+        <v>0.4298157514667417</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7389616874470559</v>
+        <v>0.003919708065604285</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3847206578348099</v>
+        <v>0.7094180105883405</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6152793421651902</v>
+        <v>0.2905819894116595</v>
       </c>
       <c r="G107" t="n">
-        <v>1.142694207718627e-143</v>
+        <v>1.153698098522948e-143</v>
       </c>
     </row>
     <row r="108">
@@ -2908,22 +2908,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04966179175164961</v>
+        <v>0.5675509558101289</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2122326278521453</v>
+        <v>0.4286241373773285</v>
       </c>
       <c r="D108" t="n">
-        <v>0.738105580396205</v>
+        <v>0.003824906812542466</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3825287290790069</v>
+        <v>0.7091059331150718</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6174712709209932</v>
+        <v>0.2908940668849282</v>
       </c>
       <c r="G108" t="n">
-        <v>3.571713925162692e-142</v>
+        <v>3.606310114491533e-142</v>
       </c>
     </row>
     <row r="109">
@@ -2931,22 +2931,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.04970061920675892</v>
+        <v>0.5686170490480957</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2130670473326143</v>
+        <v>0.4276405480912466</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7372323334606269</v>
+        <v>0.003742402860657715</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3803279058879913</v>
+        <v>0.7086046240509539</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6196720941120087</v>
+        <v>0.291395375949046</v>
       </c>
       <c r="G109" t="n">
-        <v>1.116408646992848e-140</v>
+        <v>1.127279343122914e-140</v>
       </c>
     </row>
     <row r="110">
@@ -2954,22 +2954,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.04973983852334221</v>
+        <v>0.5696457118186933</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2139185093591892</v>
+        <v>0.4266940622099486</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7363416521174685</v>
+        <v>0.003660225971357997</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3781181258983183</v>
+        <v>0.7080717884924947</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6218818741016816</v>
+        <v>0.2919282115075052</v>
       </c>
       <c r="G110" t="n">
-        <v>3.489551393914248e-139</v>
+        <v>3.523705671270862e-139</v>
       </c>
     </row>
     <row r="111">
@@ -2977,22 +2977,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.04977946043268207</v>
+        <v>0.5708883616009864</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2147875274717487</v>
+        <v>0.4255402480535914</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7354330120955693</v>
+        <v>0.003571390345422256</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3758991987108283</v>
+        <v>0.7077246683172042</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6241008012891716</v>
+        <v>0.2922753316827958</v>
       </c>
       <c r="G111" t="n">
-        <v>1.090726554918465e-137</v>
+        <v>1.101463401298871e-137</v>
       </c>
     </row>
     <row r="112">
@@ -3000,22 +3000,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04981955926150992</v>
+        <v>0.5715066064192018</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2156750041521812</v>
+        <v>0.4249884560323025</v>
       </c>
       <c r="D112" t="n">
-        <v>0.734505436586309</v>
+        <v>0.00350493754849561</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3736709003618399</v>
+        <v>0.7068359076378516</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6263290996381602</v>
+        <v>0.2931640923621484</v>
       </c>
       <c r="G112" t="n">
-        <v>3.409275139980081e-136</v>
+        <v>3.442972918902894e-136</v>
       </c>
     </row>
     <row r="113">
@@ -3023,22 +3023,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.04985991914350509</v>
+        <v>0.5727349131997139</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2165799540112831</v>
+        <v>0.4238450307498229</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7335601268452118</v>
+        <v>0.00342005605046307</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3714334178155355</v>
+        <v>0.7064781148998309</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6285665821844646</v>
+        <v>0.293521885100169</v>
       </c>
       <c r="G113" t="n">
-        <v>1.065634068382206e-134</v>
+        <v>1.076227081717082e-134</v>
       </c>
     </row>
     <row r="114">
@@ -3046,22 +3046,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.04990073076586903</v>
+        <v>0.5736206986791089</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2175040465893857</v>
+        <v>0.423031854875997</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7325952226447453</v>
+        <v>0.003347446444894118</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3691863461355069</v>
+        <v>0.7058225414274192</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6308136538644933</v>
+        <v>0.2941774585725809</v>
       </c>
       <c r="G114" t="n">
-        <v>3.330841873917673e-133</v>
+        <v>3.364111847386087e-133</v>
       </c>
     </row>
     <row r="115">
@@ -3069,22 +3069,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.04994196670823699</v>
+        <v>0.5746281683391272</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2184476550011945</v>
+        <v>0.4220985321800303</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7316103782905685</v>
+        <v>0.003273299480842478</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3669294684896938</v>
+        <v>0.7052734407061454</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6330705315103062</v>
+        <v>0.2947265592938547</v>
       </c>
       <c r="G115" t="n">
-        <v>1.041117644477465e-131</v>
+        <v>1.051570259682534e-131</v>
       </c>
     </row>
     <row r="116">
@@ -3092,22 +3092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.04998363920757636</v>
+        <v>0.5758321431456593</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2194112005755773</v>
+        <v>0.4209745164861363</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7306051602168464</v>
+        <v>0.00319334036820423</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3646628631504293</v>
+        <v>0.7048966763142883</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6353371368495706</v>
+        <v>0.2951033236857117</v>
       </c>
       <c r="G116" t="n">
-        <v>3.254209214700491e-130</v>
+        <v>3.287065530651587e-130</v>
       </c>
     </row>
     <row r="117">
@@ -3115,22 +3115,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0500257049001246</v>
+        <v>0.5770265560803948</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2203951909718356</v>
+        <v>0.4198583774404288</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7295791041280397</v>
+        <v>0.003115066479176339</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3623863380761357</v>
+        <v>0.7045128663847589</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6376136619238643</v>
+        <v>0.2954871336152411</v>
       </c>
       <c r="G117" t="n">
-        <v>1.017164054776488e-128</v>
+        <v>1.027491740612392e-128</v>
       </c>
     </row>
     <row r="118">
@@ -3138,22 +3138,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.05006808187470239</v>
+        <v>0.5779080715226033</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2213990895867978</v>
+        <v>0.4190437215152958</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7285328285384999</v>
+        <v>0.003048206962100778</v>
       </c>
       <c r="E118" t="n">
-        <v>0.360099818461425</v>
+        <v>0.7038549284081687</v>
       </c>
       <c r="F118" t="n">
-        <v>0.639900181538575</v>
+        <v>0.2961450715918314</v>
       </c>
       <c r="G118" t="n">
-        <v>3.179335852259501e-127</v>
+        <v>3.211772824191905e-127</v>
       </c>
     </row>
     <row r="119">
@@ -3161,22 +3161,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.05011096687506418</v>
+        <v>0.5793801289386291</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2224251771093313</v>
+        <v>0.4176519855619603</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7274638560156044</v>
+        <v>0.002967885499410674</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3578029502804036</v>
+        <v>0.7037167966719355</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6421970497195965</v>
+        <v>0.2962832033280645</v>
       </c>
       <c r="G119" t="n">
-        <v>9.937603735226609e-126</v>
+        <v>1.003963516281129e-125</v>
       </c>
     </row>
     <row r="120">
@@ -3184,22 +3184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.05015426119327998</v>
+        <v>0.5798096810524538</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2234732488796015</v>
+        <v>0.4172755514192722</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7263724899271184</v>
+        <v>0.002914767528274021</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3554955200340468</v>
+        <v>0.7026623846530806</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6445044799659531</v>
+        <v>0.2973376153469193</v>
       </c>
       <c r="G120" t="n">
-        <v>3.106181327380634e-124</v>
+        <v>3.138190847125549e-124</v>
       </c>
     </row>
     <row r="121">
@@ -3207,22 +3207,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.05019787438122392</v>
+        <v>0.5809993553814625</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2245433265113608</v>
+        <v>0.4161593608324061</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7252587991074152</v>
+        <v>0.002841283786131158</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3531776294751374</v>
+        <v>0.7022774432109699</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6468223705248628</v>
+        <v>0.2977225567890302</v>
       </c>
       <c r="G121" t="n">
-        <v>9.70893955360978e-123</v>
+        <v>9.809555167778895e-123</v>
       </c>
     </row>
     <row r="122">
@@ -3230,22 +3230,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.05024195271781401</v>
+        <v>0.5820057079381711</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2256368717811929</v>
+        <v>0.4152191364823136</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7241211755009931</v>
+        <v>0.002775155579515493</v>
       </c>
       <c r="E122" t="n">
-        <v>0.350848911647418</v>
+        <v>0.7017309146322568</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6491510883525818</v>
+        <v>0.2982690853677432</v>
       </c>
       <c r="G122" t="n">
-        <v>3.034706173746758e-121</v>
+        <v>3.066318156278215e-121</v>
       </c>
     </row>
     <row r="123">
@@ -3253,22 +3253,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05028644463036893</v>
+        <v>0.5830158854607226</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2267542474448775</v>
+        <v>0.4142737024234929</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7229593079247537</v>
+        <v>0.002710412115784537</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3485092684966472</v>
+        <v>0.7011885727085241</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6514907315033528</v>
+        <v>0.2988114272914758</v>
       </c>
       <c r="G123" t="n">
-        <v>9.485524633105761e-120</v>
+        <v>9.584846640729734e-120</v>
       </c>
     </row>
     <row r="124">
@@ -3276,22 +3276,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.05033134733581537</v>
+        <v>0.5848524807789571</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2278960758498791</v>
+        <v>0.4125194955235462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7217725768143055</v>
+        <v>0.002628023697496569</v>
       </c>
       <c r="E124" t="n">
-        <v>0.346158506907629</v>
+        <v>0.7013788055137339</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6538414930923709</v>
+        <v>0.2986211944862661</v>
       </c>
       <c r="G124" t="n">
-        <v>2.964871795709967e-118</v>
+        <v>2.996142536064266e-118</v>
       </c>
     </row>
     <row r="125">
@@ -3299,22 +3299,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.05037666112620895</v>
+        <v>0.5859185583321899</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2290630403695187</v>
+        <v>0.4115174609960566</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7205602985042724</v>
+        <v>0.00256398067175357</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3437964395276034</v>
+        <v>0.7008883218728285</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6562035604723968</v>
+        <v>0.2991116781271716</v>
       </c>
       <c r="G125" t="n">
-        <v>9.26723835646801e-117</v>
+        <v>9.365502537862703e-117</v>
       </c>
     </row>
     <row r="126">
@@ -3322,22 +3322,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05042238627472076</v>
+        <v>0.586765108182958</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2302558513964976</v>
+        <v>0.4107291115057203</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7193217623287818</v>
+        <v>0.002505780311321732</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3414228784642169</v>
+        <v>0.7002032838654555</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6585771215357831</v>
+        <v>0.2997967161345446</v>
       </c>
       <c r="G126" t="n">
-        <v>2.896640493686992e-115</v>
+        <v>2.927502123214174e-115</v>
       </c>
     </row>
     <row r="127">
@@ -3345,22 +3345,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05046855292518473</v>
+        <v>0.5872033848175238</v>
       </c>
       <c r="C127" t="n">
-        <v>0.231475480650662</v>
+        <v>0.410338122702489</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7180559664241531</v>
+        <v>0.002458492479987156</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3390376883479762</v>
+        <v>0.6991553078074491</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6609623116520238</v>
+        <v>0.3008446921925509</v>
       </c>
       <c r="G127" t="n">
-        <v>9.053962882464017e-114</v>
+        <v>9.150792759926698e-114</v>
       </c>
     </row>
     <row r="128">
@@ -3368,22 +3368,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.05051506929796359</v>
+        <v>0.5889683584947182</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2327220085635517</v>
+        <v>0.4086477916793183</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7167629221384848</v>
+        <v>0.002383849825963596</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3366404696064833</v>
+        <v>0.6992893423950391</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6633595303935167</v>
+        <v>0.3007106576049607</v>
       </c>
       <c r="G128" t="n">
-        <v>2.829975427016813e-112</v>
+        <v>2.860456216952483e-112</v>
       </c>
     </row>
     <row r="129">
@@ -3391,22 +3391,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.05056203422152764</v>
+        <v>0.589225563238467</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2339969412629956</v>
+        <v>0.4084339196651735</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7154410245154768</v>
+        <v>0.002340517096359428</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3342312254590404</v>
+        <v>0.6980794099732592</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6657687745409596</v>
+        <v>0.3019205900267407</v>
       </c>
       <c r="G129" t="n">
-        <v>8.845583000853483e-111</v>
+        <v>8.941177955760606e-111</v>
       </c>
     </row>
     <row r="130">
@@ -3414,22 +3414,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.05060941063676737</v>
+        <v>0.5902069253271174</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2353009442893085</v>
+        <v>0.407508866228285</v>
       </c>
       <c r="D130" t="n">
-        <v>0.714089645073924</v>
+        <v>0.002284208444597655</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3318096269514639</v>
+        <v>0.6975146088956087</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6681903730485362</v>
+        <v>0.3024853911043912</v>
       </c>
       <c r="G130" t="n">
-        <v>2.764840597674898e-109</v>
+        <v>2.794875104940884e-109</v>
       </c>
     </row>
     <row r="131">
@@ -3437,22 +3437,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0506571853898793</v>
+        <v>0.5923386995340171</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2366346162150288</v>
+        <v>0.4054533903256448</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7127081983950918</v>
+        <v>0.00220791014033809</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3293755401916347</v>
+        <v>0.6979810302851225</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6706244598083652</v>
+        <v>0.3020189697148776</v>
       </c>
       <c r="G131" t="n">
-        <v>8.641986236915183e-108</v>
+        <v>8.736615685311852e-108</v>
       </c>
     </row>
     <row r="132">
@@ -3460,22 +3460,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.05070543103776178</v>
+        <v>0.5926275216206066</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2379997458117185</v>
+        <v>0.4052091369108375</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7112948231505196</v>
+        <v>0.002163341468555825</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3269283735053456</v>
+        <v>0.6967975304401524</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6730716264946545</v>
+        <v>0.3032024695598475</v>
       </c>
       <c r="G132" t="n">
-        <v>2.701200813175229e-106</v>
+        <v>2.730882426354063e-106</v>
       </c>
     </row>
     <row r="133">
@@ -3483,22 +3483,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.05075398182617215</v>
+        <v>0.5938645269350754</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2393954524994741</v>
+        <v>0.4040285331869164</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7098505656743538</v>
+        <v>0.002106939878008195</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3244687598325205</v>
+        <v>0.6964650743824408</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6755312401674796</v>
+        <v>0.3035349256175593</v>
       </c>
       <c r="G133" t="n">
-        <v>8.443062620318614e-105</v>
+        <v>8.536377928596287e-105</v>
       </c>
     </row>
     <row r="134">
@@ -3506,22 +3506,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0508029942577164</v>
+        <v>0.5949836581275886</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2408244293620553</v>
+        <v>0.4029638405258555</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7083725763802283</v>
+        <v>0.0020525013465559</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3219956073293981</v>
+        <v>0.6960255314068799</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6780043926706018</v>
+        <v>0.3039744685931201</v>
       </c>
       <c r="G134" t="n">
-        <v>2.639021764160614e-103</v>
+        <v>2.668350644345624e-103</v>
       </c>
     </row>
     <row r="135">
@@ -3529,22 +3529,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.05085241461102372</v>
+        <v>0.5955225477134873</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2422871945154213</v>
+        <v>0.4024703578043338</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7068603908735551</v>
+        <v>0.002007094482178895</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3195089491739951</v>
+        <v>0.6950678328146296</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6804910508260049</v>
+        <v>0.3049321671853704</v>
       </c>
       <c r="G135" t="n">
-        <v>8.24870470859602e-102</v>
+        <v>8.340758577503605e-102</v>
       </c>
     </row>
     <row r="136">
@@ -3552,22 +3552,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.05090225947708108</v>
+        <v>0.596522211897648</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2437848476985015</v>
+        <v>0.4015218974059043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7053128928244174</v>
+        <v>0.001955890696447681</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3170085225400686</v>
+        <v>0.6945231919893565</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6829914774599314</v>
+        <v>0.3054768080106434</v>
       </c>
       <c r="G136" t="n">
-        <v>2.578269799902391e-100</v>
+        <v>2.607194756309374e-100</v>
       </c>
     </row>
     <row r="137">
@@ -3575,22 +3575,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.05095247688112842</v>
+        <v>0.5975954619410444</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2453182393184269</v>
+        <v>0.4005002783870468</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7037292838004446</v>
+        <v>0.001904259671908642</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3144940294354744</v>
+        <v>0.69404546765418</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6855059705645256</v>
+        <v>0.3059545323458202</v>
       </c>
       <c r="G137" t="n">
-        <v>8.058807510084945e-99</v>
+        <v>8.149711803779847e-99</v>
       </c>
     </row>
     <row r="138">
@@ -3598,22 +3598,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.5993881814149065</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.398769802847469</v>
       </c>
       <c r="D138" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001842015737624538</v>
       </c>
       <c r="E138" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6942202166004292</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3057797833995709</v>
       </c>
       <c r="G138" t="n">
-        <v>2.495556317190116e-97</v>
+        <v>2.547530286594444e-97</v>
       </c>
     </row>
     <row r="139">
@@ -3621,22 +3621,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6008991334415577</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3973141387554525</v>
       </c>
       <c r="D139" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.001786727802990017</v>
       </c>
       <c r="E139" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6941444827199895</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3058555172800106</v>
       </c>
       <c r="G139" t="n">
-        <v>7.800855789702526e-96</v>
+        <v>7.96330341988682e-96</v>
       </c>
     </row>
     <row r="140">
@@ -3644,22 +3644,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6013867692773605</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3968671873370168</v>
       </c>
       <c r="D140" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001746043385622619</v>
       </c>
       <c r="E140" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6931362084466791</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3068637915533209</v>
       </c>
       <c r="G140" t="n">
-        <v>2.438468354032481e-94</v>
+        <v>2.489174075305169e-94</v>
       </c>
     </row>
     <row r="141">
@@ -3667,22 +3667,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.602561426925737</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3957410236444557</v>
       </c>
       <c r="D141" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.001697549429807224</v>
       </c>
       <c r="E141" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6927544938536951</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3072455061463049</v>
       </c>
       <c r="G141" t="n">
-        <v>7.62240461035908e-93</v>
+        <v>7.780818261770337e-93</v>
       </c>
     </row>
     <row r="142">
@@ -3690,22 +3690,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.6028906293526035</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3954471368852454</v>
       </c>
       <c r="D142" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001662233762151142</v>
       </c>
       <c r="E142" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6916037068854187</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3083962931145812</v>
       </c>
       <c r="G142" t="n">
-        <v>2.382686326354902e-91</v>
+        <v>2.432122567217386e-91</v>
       </c>
     </row>
     <row r="143">
@@ -3713,22 +3713,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6052373228862136</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3931624591351069</v>
       </c>
       <c r="D143" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001600217978679506</v>
       </c>
       <c r="E143" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.692292824584261</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3077071754157391</v>
       </c>
       <c r="G143" t="n">
-        <v>7.448035652795852e-90</v>
+        <v>7.602722301964059e-90</v>
       </c>
     </row>
     <row r="144">
@@ -3736,22 +3736,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6064578536698325</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3919822114111173</v>
       </c>
       <c r="D144" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001559934919050199</v>
       </c>
       <c r="E144" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.691956760655173</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.308043239344827</v>
       </c>
       <c r="G144" t="n">
-        <v>2.328180359778157e-88</v>
+        <v>2.376510363970428e-88</v>
       </c>
     </row>
     <row r="145">
@@ -3759,22 +3759,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.606190970301719</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3922826789853266</v>
       </c>
       <c r="D145" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001526350712954506</v>
       </c>
       <c r="E145" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6902595636992575</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3097404363007424</v>
       </c>
       <c r="G145" t="n">
-        <v>7.277655532734162e-87</v>
+        <v>7.428359672695882e-87</v>
       </c>
     </row>
     <row r="146">
@@ -3782,22 +3782,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.606839300742515</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3916703825227603</v>
       </c>
       <c r="D146" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001490316734724657</v>
       </c>
       <c r="E146" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6893986383386481</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3106013616613519</v>
       </c>
       <c r="G146" t="n">
-        <v>2.274921263324266e-85</v>
+        <v>2.321971091955405e-85</v>
       </c>
     </row>
     <row r="147">
@@ -3805,22 +3805,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.737854021784791e-11</v>
+        <v>0.6087462048890706</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3898169767891528</v>
       </c>
       <c r="D147" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>0.001436818321776505</v>
       </c>
       <c r="E147" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6896931008072391</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.310306899192761</v>
       </c>
       <c r="G147" t="n">
-        <v>7.111173002139282e-84</v>
+        <v>7.258308810864807e-84</v>
       </c>
     </row>
     <row r="148">
@@ -3828,22 +3828,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6089899416062812</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3896055864342078</v>
       </c>
       <c r="D148" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001404471959511122</v>
       </c>
       <c r="E148" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6884609070213312</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3115390929786688</v>
       </c>
       <c r="G148" t="n">
-        <v>2.222880513783737e-82</v>
+        <v>2.268791503818717e-82</v>
       </c>
     </row>
     <row r="149">
@@ -3851,22 +3851,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.6121701224750613</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3864836901447114</v>
       </c>
       <c r="D149" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001346187380227285</v>
       </c>
       <c r="E149" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6899339587167836</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3100660412832164</v>
       </c>
       <c r="G149" t="n">
-        <v>6.948498900353917e-81</v>
+        <v>7.092319060937072e-81</v>
       </c>
     </row>
     <row r="150">
@@ -3874,22 +3874,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>8.737875579513425e-11</v>
+        <v>0.6120384158929323</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3866474452982032</v>
       </c>
       <c r="D150" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>0.001314138808864637</v>
       </c>
       <c r="E150" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6883540487281334</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3116459512718666</v>
       </c>
       <c r="G150" t="n">
-        <v>2.172030240439638e-79</v>
+        <v>2.216884014732178e-79</v>
       </c>
     </row>
     <row r="151">
@@ -3897,22 +3897,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6140710933360622</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3846621389695269</v>
       </c>
       <c r="D151" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.00126676769441088</v>
       </c>
       <c r="E151" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6887752665975762</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3112247334024237</v>
       </c>
       <c r="G151" t="n">
-        <v>6.78954610634488e-78</v>
+        <v>6.929840249208923e-78</v>
       </c>
     </row>
     <row r="152">
@@ -3920,22 +3920,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6129219395466603</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3858284951550565</v>
       </c>
       <c r="D152" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.001249565298283212</v>
       </c>
       <c r="E152" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6862517923669565</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3137482076330435</v>
       </c>
       <c r="G152" t="n">
-        <v>2.122343210141139e-76</v>
+        <v>2.166037065094147e-76</v>
       </c>
     </row>
     <row r="153">
@@ -3943,22 +3943,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6142753612683157</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3845160078788276</v>
       </c>
       <c r="D153" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001208630852856691</v>
       </c>
       <c r="E153" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6860438058271499</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3139561941728501</v>
       </c>
       <c r="G153" t="n">
-        <v>6.63422949204683e-75</v>
+        <v>6.770770653510745e-75</v>
       </c>
     </row>
     <row r="154">
@@ -3966,22 +3966,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6145930309255779</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3842275557545812</v>
       </c>
       <c r="D154" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.001179413319840881</v>
       </c>
       <c r="E154" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6848762283027104</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3151237716972896</v>
       </c>
       <c r="G154" t="n">
-        <v>2.073792812719207e-73</v>
+        <v>2.116401554708735e-73</v>
       </c>
     </row>
     <row r="155">
@@ -3989,22 +3989,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6148434723257614</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3840017286952637</v>
       </c>
       <c r="D155" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001154798978974751</v>
       </c>
       <c r="E155" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6836447218004233</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3163552781995768</v>
       </c>
       <c r="G155" t="n">
-        <v>6.482465876770552e-72</v>
+        <v>6.61541698417845e-72</v>
       </c>
     </row>
     <row r="156">
@@ -4012,22 +4012,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6156234107129539</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3832551195200245</v>
       </c>
       <c r="D156" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001121469767021675</v>
       </c>
       <c r="E156" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6829043897954227</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3170956102045773</v>
       </c>
       <c r="G156" t="n">
-        <v>2.02635304673453e-70</v>
+        <v>2.067867208455217e-70</v>
       </c>
     </row>
     <row r="157">
@@ -4035,22 +4035,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.6183944878856575</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.380537893351915</v>
       </c>
       <c r="D157" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001067618762427437</v>
       </c>
       <c r="E157" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6840204297933364</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3159795702066636</v>
       </c>
       <c r="G157" t="n">
-        <v>6.334173982656783e-69</v>
+        <v>6.464155114938035e-69</v>
       </c>
     </row>
     <row r="158">
@@ -4058,22 +4058,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>8.737843242920475e-11</v>
+        <v>0.62012700821684</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3788444775463243</v>
       </c>
       <c r="D158" t="n">
-        <v>1.203903643443728e-11</v>
+        <v>0.001028514236835654</v>
       </c>
       <c r="E158" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6841728227751326</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3158271772248674</v>
       </c>
       <c r="G158" t="n">
-        <v>1.97999850555274e-67</v>
+        <v>2.020638340545891e-67</v>
       </c>
     </row>
     <row r="159">
@@ -4081,22 +4081,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>8.737875579513425e-11</v>
+        <v>0.6217873819996576</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3772158819625336</v>
       </c>
       <c r="D159" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>0.0009967360378088099</v>
       </c>
       <c r="E159" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6842609886413606</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3157390113586393</v>
       </c>
       <c r="G159" t="n">
-        <v>6.189274391144815e-66</v>
+        <v>6.31632676154214e-66</v>
       </c>
     </row>
     <row r="160">
@@ -4104,22 +4104,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6217554852832212</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3772800522693552</v>
       </c>
       <c r="D160" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0009644624474235259</v>
       </c>
       <c r="E160" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6827645866592533</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3172354133407466</v>
       </c>
       <c r="G160" t="n">
-        <v>1.934704363738124e-64</v>
+        <v>1.97433279248884e-64</v>
       </c>
     </row>
     <row r="161">
@@ -4127,22 +4127,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.6215034484447579</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3775549833727878</v>
       </c>
       <c r="D161" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0009415681824541951</v>
       </c>
       <c r="E161" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.681057192508136</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.318942807491864</v>
       </c>
       <c r="G161" t="n">
-        <v>6.047689500441163e-63</v>
+        <v>6.171254173393131e-63</v>
       </c>
     </row>
     <row r="162">
@@ -4150,22 +4150,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6233442207806469</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3757488870082907</v>
       </c>
       <c r="D162" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0009068922110623054</v>
       </c>
       <c r="E162" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6813147298416711</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.318685270158329</v>
       </c>
       <c r="G162" t="n">
-        <v>1.89044636375744e-61</v>
+        <v>1.929086032359928e-61</v>
       </c>
     </row>
     <row r="163">
@@ -4173,22 +4173,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6238976060129398</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3752259395811446</v>
       </c>
       <c r="D163" t="n">
-        <v>1.203903643443728e-11</v>
+        <v>0.0008764544059156942</v>
       </c>
       <c r="E163" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6803658817530841</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3196341182469159</v>
       </c>
       <c r="G163" t="n">
-        <v>5.909343483958673e-60</v>
+        <v>6.02995895464247e-60</v>
       </c>
     </row>
     <row r="164">
@@ -4196,22 +4196,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6219324198469881</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.377201557517211</v>
       </c>
       <c r="D164" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.0008660226358008635</v>
       </c>
       <c r="E164" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6770373045780093</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3229626954219909</v>
       </c>
       <c r="G164" t="n">
-        <v>1.847200802989176e-58</v>
+        <v>1.88471951856379e-58</v>
       </c>
     </row>
     <row r="165">
@@ -4219,22 +4219,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6283141530890269</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3708816531374384</v>
       </c>
       <c r="D165" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.000804193773534592</v>
       </c>
       <c r="E165" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6815888378248218</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3184111621751783</v>
       </c>
       <c r="G165" t="n">
-        <v>5.774162249708713e-57</v>
+        <v>5.892230385807279e-57</v>
       </c>
     </row>
     <row r="166">
@@ -4242,22 +4242,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8.737875579513425e-11</v>
+        <v>0.626059871875538</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3731466729651445</v>
       </c>
       <c r="D166" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>0.0007934551593174105</v>
       </c>
       <c r="E166" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6779820516003815</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3220179483996184</v>
       </c>
       <c r="G166" t="n">
-        <v>1.804944521029354e-55</v>
+        <v>1.841656120705761e-55</v>
       </c>
     </row>
     <row r="167">
@@ -4265,22 +4265,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.6289044750893547</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3703404294210588</v>
       </c>
       <c r="D167" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0007550954895864943</v>
       </c>
       <c r="E167" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6791998368699929</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3208001631300071</v>
       </c>
       <c r="G167" t="n">
-        <v>5.64207340061845e-54</v>
+        <v>5.757036260600939e-54</v>
       </c>
     </row>
     <row r="168">
@@ -4288,22 +4288,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6230239336940608</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3762109498829189</v>
       </c>
       <c r="D168" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.000765116423020419</v>
       </c>
       <c r="E168" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6721409926730553</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3278590073269448</v>
       </c>
       <c r="G168" t="n">
-        <v>1.763654887287726e-52</v>
+        <v>1.799217629682713e-52</v>
       </c>
     </row>
     <row r="169">
@@ -4311,22 +4311,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6224740936920964</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3767815432967604</v>
       </c>
       <c r="D169" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0007443630111430571</v>
       </c>
       <c r="E169" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6701326778206713</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3298673221793287</v>
       </c>
       <c r="G169" t="n">
-        <v>5.513006195759759e-51</v>
+        <v>5.623839563887571e-51</v>
       </c>
     </row>
     <row r="170">
@@ -4334,22 +4334,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6249578807683043</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3743350174955736</v>
       </c>
       <c r="D170" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.0007071017361221767</v>
       </c>
       <c r="E170" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6710020545424942</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3289979454575058</v>
       </c>
       <c r="G170" t="n">
-        <v>1.723309788868296e-49</v>
+        <v>1.75800012113149e-49</v>
       </c>
     </row>
     <row r="171">
@@ -4357,22 +4357,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6254154894684993</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3738976381029557</v>
       </c>
       <c r="D171" t="n">
-        <v>1.203890277651976e-11</v>
+        <v>0.0006868724285448971</v>
       </c>
       <c r="E171" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6699523129601159</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.330047687039884</v>
       </c>
       <c r="G171" t="n">
-        <v>5.386891512462771e-48</v>
+        <v>5.495160325299954e-48</v>
       </c>
     </row>
     <row r="172">
@@ -4380,22 +4380,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6088863220515263</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3902714268634142</v>
       </c>
       <c r="D172" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0008422510850595638</v>
       </c>
       <c r="E172" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6527399790276103</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3472600209723897</v>
       </c>
       <c r="G172" t="n">
-        <v>1.683887618725938e-46</v>
+        <v>1.716861841788898e-46</v>
       </c>
     </row>
     <row r="173">
@@ -4403,22 +4403,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.6141716301574635</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.3850749899476221</v>
       </c>
       <c r="D173" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.000753379894914273</v>
       </c>
       <c r="E173" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.656252243188739</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3437477568112611</v>
       </c>
       <c r="G173" t="n">
-        <v>5.263661809298264e-45</v>
+        <v>5.367290505374796e-45</v>
       </c>
     </row>
     <row r="174">
@@ -4426,22 +4426,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.6074357742979534</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3917396585497304</v>
       </c>
       <c r="D174" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.0008245671523162307</v>
       </c>
       <c r="E174" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6483286473105323</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3516713526894678</v>
       </c>
       <c r="G174" t="n">
-        <v>1.645367264094979e-43</v>
+        <v>1.677369426069886e-43</v>
       </c>
     </row>
     <row r="175">
@@ -4449,22 +4449,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>8.737854021784791e-11</v>
+        <v>0.6053617499834041</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.3938071058771108</v>
       </c>
       <c r="D175" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>0.0008311441394851172</v>
       </c>
       <c r="E175" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6448245524788556</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3551754475211445</v>
       </c>
       <c r="G175" t="n">
-        <v>5.143251089902978e-42</v>
+        <v>5.2427459273577e-42</v>
       </c>
     </row>
     <row r="176">
@@ -4472,22 +4472,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.5876602866636086</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.411174147406818</v>
       </c>
       <c r="D176" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.001165565929573233</v>
       </c>
       <c r="E176" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6264142478850515</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3735857521149485</v>
       </c>
       <c r="G176" t="n">
-        <v>1.607728095182561e-40</v>
+        <v>1.637941208744214e-40</v>
       </c>
     </row>
     <row r="177">
@@ -4495,22 +4495,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>8.737843242920475e-11</v>
+        <v>0.5761594283385816</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.4223924902027083</v>
       </c>
       <c r="D177" t="n">
-        <v>1.203910326339605e-11</v>
+        <v>0.001448081458710117</v>
       </c>
       <c r="E177" t="n">
-        <v>9.708749446274837e-11</v>
+        <v>0.613875520343913</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.386124479656087</v>
       </c>
       <c r="G177" t="n">
-        <v>5.025594867638025e-39</v>
+        <v>5.118147557555388e-39</v>
       </c>
     </row>
     <row r="178">
@@ -4518,22 +4518,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.596274789255185</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.40279863709398</v>
       </c>
       <c r="D178" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>0.000926573650835032</v>
       </c>
       <c r="E178" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.6315455546513742</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.3684544453486258</v>
       </c>
       <c r="G178" t="n">
-        <v>1.570949954119059e-37</v>
+        <v>1.600713747917507e-37</v>
       </c>
     </row>
     <row r="179">
@@ -4541,22 +4541,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.09758456814894378</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.9024154318349745</v>
       </c>
       <c r="D179" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.608175750678181e-11</v>
       </c>
       <c r="E179" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.09840058499866081</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.9015994150013391</v>
       </c>
       <c r="G179" t="n">
-        <v>4.910630131048647e-36</v>
+        <v>4.925126397362518e-36</v>
       </c>
     </row>
     <row r="180">
@@ -4564,22 +4564,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.1014221107870649</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8985778892008597</v>
       </c>
       <c r="D180" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.20754650729975e-11</v>
       </c>
       <c r="E180" t="n">
-        <v>9.708760225139155e-11</v>
+        <v>0.1021968864259002</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9999999999029124</v>
+        <v>0.8978031135740998</v>
       </c>
       <c r="G180" t="n">
-        <v>1.535013144163807e-34</v>
+        <v>1.539719351078014e-34</v>
       </c>
     </row>
     <row r="181">
@@ -4587,22 +4587,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>8.737854021784791e-11</v>
+        <v>0.1033258657974023</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8966741341905214</v>
       </c>
       <c r="D181" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>1.207615264276823e-11</v>
       </c>
       <c r="E181" t="n">
-        <v>9.708760225139155e-11</v>
+        <v>0.1040952486990771</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9999999999029124</v>
+        <v>0.8959047513009227</v>
       </c>
       <c r="G181" t="n">
-        <v>4.79829531012305e-33</v>
+        <v>4.813279702418196e-33</v>
       </c>
     </row>
     <row r="182">
@@ -4610,22 +4610,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8.737875579513425e-11</v>
+        <v>0.108370919206019</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.8916290807819031</v>
       </c>
       <c r="D182" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>1.207797473972745e-11</v>
       </c>
       <c r="E182" t="n">
-        <v>9.708749446274837e-11</v>
+        <v>0.1091636431063296</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8908363568936705</v>
       </c>
       <c r="G182" t="n">
-        <v>1.499898419155745e-31</v>
+        <v>1.504810450423096e-31</v>
       </c>
     </row>
     <row r="183">
@@ -4633,22 +4633,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.1100478277731533</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8899521722147681</v>
       </c>
       <c r="D183" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.20785803804915e-11</v>
       </c>
       <c r="E183" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.1108407453219744</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8891592546780256</v>
       </c>
       <c r="G183" t="n">
-        <v>4.688530243313037e-30</v>
+        <v>4.704120648898338e-30</v>
       </c>
     </row>
     <row r="184">
@@ -4656,22 +4656,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>8.737843242920475e-11</v>
+        <v>0.1150342795645031</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8849657204227958</v>
       </c>
       <c r="D184" t="n">
-        <v>1.203910326339605e-11</v>
+        <v>1.270125893067198e-11</v>
       </c>
       <c r="E184" t="n">
-        <v>9.708749446274837e-11</v>
+        <v>0.1158757915568415</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8841242084431586</v>
       </c>
       <c r="G184" t="n">
-        <v>1.465586973205445e-28</v>
+        <v>1.470681754719629e-28</v>
       </c>
     </row>
     <row r="185">
@@ -4679,22 +4679,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.1180195093515678</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8819804906363508</v>
       </c>
       <c r="D185" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.208145947325574e-11</v>
       </c>
       <c r="E185" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.1188405103306172</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8811594896693828</v>
       </c>
       <c r="G185" t="n">
-        <v>4.581276145318634e-27</v>
+        <v>4.597609381157497e-27</v>
       </c>
     </row>
     <row r="186">
@@ -4702,22 +4702,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>8.737843242920475e-11</v>
+        <v>0.1221837292695971</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8778162707183199</v>
       </c>
       <c r="D186" t="n">
-        <v>1.203910326339605e-11</v>
+        <v>1.208296344394458e-11</v>
       </c>
       <c r="E186" t="n">
-        <v>9.708760225139155e-11</v>
+        <v>0.1230101863858299</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9999999999029124</v>
+        <v>0.8769898136141699</v>
       </c>
       <c r="G186" t="n">
-        <v>1.43206043062471e-25</v>
+        <v>1.437345171235131e-25</v>
       </c>
     </row>
     <row r="187">
@@ -4725,22 +4725,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>8.737854021784791e-11</v>
+        <v>0.1263975305928796</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8736024693950359</v>
       </c>
       <c r="D187" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>1.208448532170405e-11</v>
       </c>
       <c r="E187" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.1272099085310889</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8727900914689112</v>
       </c>
       <c r="G187" t="n">
-        <v>4.476475575603321e-24</v>
+        <v>4.493559137045658e-24</v>
       </c>
     </row>
     <row r="188">
@@ -4748,22 +4748,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>8.737875579513425e-11</v>
+        <v>0.133177765513028</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.866822234474885</v>
       </c>
       <c r="D188" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>1.208693410557812e-11</v>
       </c>
       <c r="E188" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.1340283361513775</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8659716638486225</v>
       </c>
       <c r="G188" t="n">
-        <v>1.399300836084751e-22</v>
+        <v>1.404927214965729e-22</v>
       </c>
     </row>
     <row r="189">
@@ -4771,22 +4771,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8.737875579513425e-11</v>
+        <v>0.1358730055507442</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.8641269944371679</v>
       </c>
       <c r="D189" t="n">
-        <v>1.203896960547852e-11</v>
+        <v>1.208790753207717e-11</v>
       </c>
       <c r="E189" t="n">
-        <v>9.708760225139155e-11</v>
+        <v>0.1366549250648043</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9999999999029124</v>
+        <v>0.8633450749351957</v>
       </c>
       <c r="G189" t="n">
-        <v>4.374072407629716e-21</v>
+        <v>4.392004563729704e-21</v>
       </c>
     </row>
     <row r="190">
@@ -4794,22 +4794,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>8.737886358377741e-11</v>
+        <v>0.1407618283397698</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9999999999005822</v>
+        <v>0.8592381716481404</v>
       </c>
       <c r="D190" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.208967320399709e-11</v>
       </c>
       <c r="E190" t="n">
-        <v>9.708760225139155e-11</v>
+        <v>0.14150011347624</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9999999999029124</v>
+        <v>0.8584998865237599</v>
       </c>
       <c r="G190" t="n">
-        <v>1.367290644999574e-19</v>
+        <v>1.373094798438248e-19</v>
       </c>
     </row>
     <row r="191">
@@ -4817,22 +4817,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.1456673375456373</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8543326624422711</v>
       </c>
       <c r="D191" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.209144490246756e-11</v>
       </c>
       <c r="E191" t="n">
-        <v>9.708738667410521e-11</v>
+        <v>0.1463354321635846</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9999999999029127</v>
+        <v>0.8536645678364154</v>
       </c>
       <c r="G191" t="n">
-        <v>4.274011798804246e-18</v>
+        <v>4.292774979701251e-18</v>
       </c>
     </row>
     <row r="192">
@@ -4840,22 +4840,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.1506353092811978</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8493646907067089</v>
       </c>
       <c r="D192" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.209323916022059e-11</v>
       </c>
       <c r="E192" t="n">
-        <v>9.70877100400347e-11</v>
+        <v>0.1512071708635747</v>
       </c>
       <c r="F192" t="n">
-        <v>0.999999999902912</v>
+        <v>0.8487928291364251</v>
       </c>
       <c r="G192" t="n">
-        <v>1.336012714131164e-16</v>
+        <v>1.342073155209501e-16</v>
       </c>
     </row>
     <row r="193">
@@ -4863,22 +4863,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>8.737843242920475e-11</v>
+        <v>0.1555392594352598</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8444607405526452</v>
       </c>
       <c r="D193" t="n">
-        <v>1.203910326339605e-11</v>
+        <v>1.209501029561603e-11</v>
       </c>
       <c r="E193" t="n">
-        <v>9.708447638073962e-11</v>
+        <v>0.1559823340411255</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9999999999029116</v>
+        <v>0.8440176659588702</v>
       </c>
       <c r="G193" t="n">
-        <v>4.176240161104045e-15</v>
+        <v>4.195782751727183e-15</v>
       </c>
     </row>
     <row r="194">
@@ -4886,22 +4886,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>8.737864800649107e-11</v>
+        <v>0.1604124295964814</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8395875703914218</v>
       </c>
       <c r="D194" t="n">
-        <v>1.203883594756099e-11</v>
+        <v>1.209677031435913e-11</v>
       </c>
       <c r="E194" t="n">
-        <v>9.698207716972779e-11</v>
+        <v>0.1606867470172851</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9999999999028871</v>
+        <v>0.8393132529825837</v>
       </c>
       <c r="G194" t="n">
-        <v>1.305450292406847e-13</v>
+        <v>1.311743349229419e-13</v>
       </c>
     </row>
     <row r="195">
@@ -4909,22 +4909,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>8.737843242920475e-11</v>
+        <v>0.1652786072773275</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9999999999005824</v>
+        <v>0.8347213927105739</v>
       </c>
       <c r="D195" t="n">
-        <v>1.203910326339605e-11</v>
+        <v>1.209852780765219e-11</v>
       </c>
       <c r="E195" t="n">
-        <v>9.379649160947489e-11</v>
+        <v>0.1653519619055837</v>
       </c>
       <c r="F195" t="n">
-        <v>0.999999999902123</v>
+        <v>0.8346480380903153</v>
       </c>
       <c r="G195" t="n">
-        <v>4.080705132372781e-12</v>
+        <v>4.100947710349121e-12</v>
       </c>
     </row>
     <row r="196">
@@ -4932,22 +4932,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0541070169485247</v>
+        <v>0.1701169483594048</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5640273000739043</v>
+        <v>0.829883051628495</v>
       </c>
       <c r="D196" t="n">
-        <v>0.381865682977571</v>
+        <v>1.210027524734397e-11</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1134289645858925</v>
+        <v>0.1699411011122717</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8865710352861146</v>
+        <v>0.8300588987595192</v>
       </c>
       <c r="G196" t="n">
-        <v>1.279927667338333e-10</v>
+        <v>1.282090251759397e-10</v>
       </c>
     </row>
     <row r="197">
@@ -4955,22 +4955,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.05412153067505796</v>
+        <v>0.174772502209115</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5888616868468967</v>
+        <v>0.825227494490392</v>
       </c>
       <c r="D197" t="n">
-        <v>0.3570167824780455</v>
+        <v>3.30049297450791e-09</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1071270683891886</v>
+        <v>0.174878120878885</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8928729276106411</v>
+        <v>0.8251218751128404</v>
       </c>
       <c r="G197" t="n">
-        <v>4.000170156900288e-09</v>
+        <v>4.008274582946227e-09</v>
       </c>
     </row>
     <row r="198">
@@ -4978,22 +4978,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0541868517224783</v>
+        <v>0.1783410662372502</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6192736609324754</v>
+        <v>0.8216588101300514</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3265394873450462</v>
+        <v>1.236326983015867e-07</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1002165572396033</v>
+        <v>0.1783326145197632</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8997833177449797</v>
+        <v>0.8216672601727265</v>
       </c>
       <c r="G198" t="n">
-        <v>1.250154171109525e-07</v>
+        <v>1.253075102783219e-07</v>
       </c>
     </row>
     <row r="199">
@@ -5001,22 +5001,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.05413655920615942</v>
+        <v>0.1905980333297868</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6554447757127985</v>
+        <v>0.8093980522821056</v>
       </c>
       <c r="D199" t="n">
-        <v>0.290418665081042</v>
+        <v>3.914388107618685e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>0.09264121926644851</v>
+        <v>0.1905980832783193</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9073548737664158</v>
+        <v>0.8093979983049387</v>
       </c>
       <c r="G199" t="n">
-        <v>3.906967135758375e-06</v>
+        <v>3.918416742046265e-06</v>
       </c>
     </row>
     <row r="200">
@@ -5024,22 +5024,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.06142165914372947</v>
+        <v>0.193611264819849</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7880134299568794</v>
+        <v>0.8062661886506644</v>
       </c>
       <c r="D200" t="n">
-        <v>0.150564910899391</v>
+        <v>0.0001225465294867131</v>
       </c>
       <c r="E200" t="n">
-        <v>0.08026383714790829</v>
+        <v>0.1936114132866453</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9196140826847804</v>
+        <v>0.8062660924184956</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0001220801673114056</v>
+        <v>0.0001224942948592047</v>
       </c>
     </row>
     <row r="201">
@@ -5047,22 +5047,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.06249177666585088</v>
+        <v>0.2747029188502567</v>
       </c>
       <c r="C201" t="n">
-        <v>0.8612621833596367</v>
+        <v>0.7252714525068218</v>
       </c>
       <c r="D201" t="n">
-        <v>0.07624603997451239</v>
+        <v>2.562864292156278e-05</v>
       </c>
       <c r="E201" t="n">
-        <v>0.07084035873402146</v>
+        <v>0.2714744795597405</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9253469948282205</v>
+        <v>0.7246899742602982</v>
       </c>
       <c r="G201" t="n">
-        <v>0.003812646437757941</v>
+        <v>0.00383554617996113</v>
       </c>
     </row>
     <row r="202">
@@ -5070,22 +5070,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.06364389263345005</v>
+        <v>0.2119415222289655</v>
       </c>
       <c r="C202" t="n">
-        <v>0.8720424799135745</v>
+        <v>0.787902625293029</v>
       </c>
       <c r="D202" t="n">
-        <v>0.06431362745297549</v>
+        <v>0.0001558524780053406</v>
       </c>
       <c r="E202" t="n">
-        <v>0.07053879108752921</v>
+        <v>0.2094870586382751</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9246622153790048</v>
+        <v>0.7856939857162325</v>
       </c>
       <c r="G202" t="n">
-        <v>0.00479899353346614</v>
+        <v>0.004818955645492513</v>
       </c>
     </row>
     <row r="203">
@@ -5093,22 +5093,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.06022736470370271</v>
+        <v>0.2092786267984021</v>
       </c>
       <c r="C203" t="n">
-        <v>0.8602300090423821</v>
+        <v>0.7906739389858972</v>
       </c>
       <c r="D203" t="n">
-        <v>0.07954262625391523</v>
+        <v>4.743421570070916e-05</v>
       </c>
       <c r="E203" t="n">
-        <v>0.06824727463870126</v>
+        <v>0.2056732800110269</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9247119206170465</v>
+        <v>0.7872569468649918</v>
       </c>
       <c r="G203" t="n">
-        <v>0.007040804744252123</v>
+        <v>0.00706977312398138</v>
       </c>
     </row>
     <row r="204">
@@ -5116,22 +5116,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.06114147932753483</v>
+        <v>0.2031075925019136</v>
       </c>
       <c r="C204" t="n">
-        <v>0.8753335024130982</v>
+        <v>0.7968817880848277</v>
       </c>
       <c r="D204" t="n">
-        <v>0.06352501825936706</v>
+        <v>1.061941325883082e-05</v>
       </c>
       <c r="E204" t="n">
-        <v>0.06699413519299773</v>
+        <v>0.1980691580508474</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9226775138778994</v>
+        <v>0.7915619588176216</v>
       </c>
       <c r="G204" t="n">
-        <v>0.010328350929103</v>
+        <v>0.010368883131531</v>
       </c>
     </row>
     <row r="205">
@@ -5139,22 +5139,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.05260815076695206</v>
+        <v>0.1915492230017564</v>
       </c>
       <c r="C205" t="n">
-        <v>0.766962475361176</v>
+        <v>0.8084486325847134</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1804293738718719</v>
+        <v>2.144413530228094e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>0.07035362484592057</v>
+        <v>0.1848575428611616</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9144972753467489</v>
+        <v>0.7999414279955483</v>
       </c>
       <c r="G205" t="n">
-        <v>0.01514909980733042</v>
+        <v>0.01520102914329011</v>
       </c>
     </row>
   </sheetData>
